--- a/extraction/raw extraction/scholander1952/scholander1952.xlsx
+++ b/extraction/raw extraction/scholander1952/scholander1952.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/margaretslein/lichen/extraction/raw extraction/scholander1952/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706C55D3-9BEF-CA43-B261-FEED03BF945D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2C1A1E-9FF7-3647-B4F6-4E06E6493D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33460" yWindow="-23500" windowWidth="27640" windowHeight="16440" xr2:uid="{8342AC2B-D507-014D-9205-A847FDC14515}"/>
+    <workbookView xWindow="28920" yWindow="-8200" windowWidth="25480" windowHeight="16700" xr2:uid="{8342AC2B-D507-014D-9205-A847FDC14515}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="36">
   <si>
     <t>x</t>
   </si>
@@ -103,6 +103,45 @@
   </si>
   <si>
     <t>values</t>
+  </si>
+  <si>
+    <t>sticta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lacinata </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tropical </t>
+  </si>
+  <si>
+    <t>weigelii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subamerican </t>
+  </si>
+  <si>
+    <t xml:space="preserve">scholanderi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">parmelia </t>
+  </si>
+  <si>
+    <t>nigrociliata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ramalina </t>
+  </si>
+  <si>
+    <t>dendrescoides</t>
+  </si>
+  <si>
+    <t>leptosperma</t>
+  </si>
+  <si>
+    <t>teloschistes</t>
+  </si>
+  <si>
+    <t>flavicans</t>
   </si>
 </sst>
 </file>
@@ -455,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC095291-9776-104B-A416-96870CBF645D}">
-  <dimension ref="A1:G193"/>
+  <dimension ref="A1:G395"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G193"/>
+    <sheetView tabSelected="1" topLeftCell="A377" workbookViewId="0">
+      <selection activeCell="A395" sqref="A2:A395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -488,7 +527,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>0.586080586080584</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>60.512447894990601</v>
@@ -512,7 +551,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>0.586080586080584</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>71.950313673292399</v>
@@ -536,7 +575,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>0.586080586080584</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>82.638622162252005</v>
@@ -560,7 +599,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>0.586080586080584</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>125.208610320999</v>
@@ -584,7 +623,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>0.586080586080584</v>
+        <v>0</v>
       </c>
       <c r="B6">
         <v>138.914307201463</v>
@@ -608,7 +647,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>0.586080586080584</v>
+        <v>0</v>
       </c>
       <c r="B7">
         <v>154.12026933123701</v>
@@ -800,7 +839,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>20.805860805860799</v>
+        <v>19.633699633699599</v>
       </c>
       <c r="B15">
         <v>550.11061618510303</v>
@@ -824,7 +863,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>19.926739926739899</v>
+        <v>19.633699633699599</v>
       </c>
       <c r="B16">
         <v>610.55958908897196</v>
@@ -848,7 +887,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>19.780219780219699</v>
+        <v>19.633699633699599</v>
       </c>
       <c r="B17">
         <v>665.80887943816401</v>
@@ -872,7 +911,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>20.219780219780201</v>
+        <v>19.633699633699599</v>
       </c>
       <c r="B18">
         <v>725.87350331673997</v>
@@ -896,7 +935,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>20.5128205128205</v>
+        <v>19.633699633699599</v>
       </c>
       <c r="B19">
         <v>677.22139938003102</v>
@@ -920,7 +959,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>20.805860805860799</v>
+        <v>19.633699633699599</v>
       </c>
       <c r="B20">
         <v>631.83023168999898</v>
@@ -1136,7 +1175,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>1.16788321167884</v>
+        <v>0</v>
       </c>
       <c r="B29">
         <v>60.527799761933402</v>
@@ -1160,7 +1199,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>1.4598540145985599</v>
+        <v>0</v>
       </c>
       <c r="B30">
         <v>67.1533479111513</v>
@@ -1184,7 +1223,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>0.58394160583944199</v>
+        <v>0</v>
       </c>
       <c r="B31">
         <v>67.1533479111513</v>
@@ -1208,7 +1247,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>0.58394160583944199</v>
+        <v>0</v>
       </c>
       <c r="B32">
         <v>74.504147737289003</v>
@@ -1232,7 +1271,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>1.4598540145985599</v>
+        <v>0</v>
       </c>
       <c r="B33">
         <v>79.846454977390707</v>
@@ -1256,7 +1295,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>10.510948905109499</v>
+        <v>10.2189781021898</v>
       </c>
       <c r="B34">
         <v>143.84498882876599</v>
@@ -1304,7 +1343,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>10.510948905109499</v>
+        <v>10.2189781021898</v>
       </c>
       <c r="B36">
         <v>171.03410003378301</v>
@@ -1328,7 +1367,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>10.802919708029201</v>
+        <v>10.2189781021898</v>
       </c>
       <c r="B37">
         <v>189.75598765218399</v>
@@ -1352,7 +1391,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>10.510948905109499</v>
+        <v>10.2189781021898</v>
       </c>
       <c r="B38">
         <v>203.36240846866701</v>
@@ -1664,7 +1703,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>0.74419625706602199</v>
+        <v>0</v>
       </c>
       <c r="B51">
         <v>125.240375453507</v>
@@ -1688,7 +1727,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>1.04933867515503</v>
+        <v>0</v>
       </c>
       <c r="B52">
         <v>154.15936928422599</v>
@@ -1712,7 +1751,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>1.05811975193458</v>
+        <v>0</v>
       </c>
       <c r="B53">
         <v>177.05993512268901</v>
@@ -1736,7 +1775,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>0.79029691015860903</v>
+        <v>0</v>
       </c>
       <c r="B54">
         <v>259.13963014396501</v>
@@ -1760,7 +1799,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>10.728280555403099</v>
+        <v>10.442895560067999</v>
       </c>
       <c r="B55">
         <v>308.12135887139902</v>
@@ -1808,7 +1847,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>10.4516766368475</v>
+        <v>10.442895560067999</v>
       </c>
       <c r="B57">
         <v>392.63134017068302</v>
@@ -1856,7 +1895,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>20.9845782339059</v>
+        <v>20.108665825146801</v>
       </c>
       <c r="B59">
         <v>555.08680300597905</v>
@@ -2024,7 +2063,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>1.16788321167882</v>
+        <v>0</v>
       </c>
       <c r="B66">
         <v>21.420374903583799</v>
@@ -2048,7 +2087,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>1.16788321167882</v>
+        <v>0</v>
       </c>
       <c r="B67">
         <v>24.6023982086977</v>
@@ -2072,7 +2111,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>1.4598540145985299</v>
+        <v>0</v>
       </c>
       <c r="B68">
         <v>27.772119324293399</v>
@@ -2096,7 +2135,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>0.87591240875913401</v>
+        <v>0</v>
       </c>
       <c r="B69">
         <v>32.454744574113199</v>
@@ -2120,7 +2159,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>11.0948905109489</v>
+        <v>9.9270072992700698</v>
       </c>
       <c r="B70">
         <v>62.660301640726402</v>
@@ -2408,7 +2447,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>29.489051094890499</v>
+        <v>30.072992700729898</v>
       </c>
       <c r="B82">
         <v>277.72119324293499</v>
@@ -2432,7 +2471,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>29.781021897810199</v>
+        <v>30.072992700729898</v>
       </c>
       <c r="B83">
         <v>259.13963014396501</v>
@@ -2456,7 +2495,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>30.948905109489001</v>
+        <v>30.072992700729898</v>
       </c>
       <c r="B84">
         <v>259.13963014396501</v>
@@ -2480,7 +2519,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>30.656934306569301</v>
+        <v>30.072992700729898</v>
       </c>
       <c r="B85">
         <v>268.26957952797198</v>
@@ -2528,7 +2567,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>0.58823529411764497</v>
+        <v>0.29411764705882198</v>
       </c>
       <c r="B87">
         <v>71.438542309319701</v>
@@ -2552,7 +2591,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>0.88235294117646701</v>
+        <v>0.29411764705882198</v>
       </c>
       <c r="B88">
         <v>79.227582527525001</v>
@@ -2624,7 +2663,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>10.588235294117601</v>
+        <v>10.294117647058799</v>
       </c>
       <c r="B91">
         <v>132.92158325925399</v>
@@ -2648,7 +2687,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>9.1176470588235201</v>
+        <v>10.294117647058799</v>
       </c>
       <c r="B92">
         <v>163.486970450641</v>
@@ -2696,7 +2735,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>9.9999999999999893</v>
+        <v>10.294117647058799</v>
       </c>
       <c r="B94">
         <v>187.67578440147199</v>
@@ -2720,7 +2759,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>11.176470588235199</v>
+        <v>10.294117647058799</v>
       </c>
       <c r="B95">
         <v>175.164338319032</v>
@@ -2744,7 +2783,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>10.8823529411764</v>
+        <v>10.294117647058799</v>
       </c>
       <c r="B96">
         <v>201.08088432107999</v>
@@ -2768,7 +2807,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>10.588235294117601</v>
+        <v>10.294117647058799</v>
       </c>
       <c r="B97">
         <v>215.443469003187</v>
@@ -2792,7 +2831,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>10.588235294117601</v>
+        <v>10.294117647058799</v>
       </c>
       <c r="B98">
         <v>230.83192861839601</v>
@@ -2816,7 +2855,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>19.117647058823501</v>
+        <v>19.705882352941099</v>
       </c>
       <c r="B99">
         <v>337.35712556726202</v>
@@ -2864,7 +2903,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>20.8823529411764</v>
+        <v>19.705882352941099</v>
       </c>
       <c r="B101">
         <v>337.35712556726202</v>
@@ -2888,7 +2927,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>20.294117647058801</v>
+        <v>19.705882352941099</v>
       </c>
       <c r="B102">
         <v>374.13962607747698</v>
@@ -2936,7 +2975,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>19.117647058823501</v>
+        <v>19.705882352941099</v>
       </c>
       <c r="B104">
         <v>374.13962607747698</v>
@@ -3008,7 +3047,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>29.705882352941099</v>
+        <v>30.294117647058801</v>
       </c>
       <c r="B107">
         <v>460.17322765137902</v>
@@ -3032,7 +3071,7 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>30</v>
+        <v>30.294117647058801</v>
       </c>
       <c r="B108">
         <v>510.34653272804701</v>
@@ -3056,7 +3095,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>30</v>
+        <v>30.294117647058801</v>
       </c>
       <c r="B109">
         <v>565.99030064577096</v>
@@ -3080,7 +3119,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>30</v>
+        <v>30.294117647058801</v>
       </c>
       <c r="B110">
         <v>627.70098331557995</v>
@@ -3104,7 +3143,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>30.8823529411764</v>
+        <v>30.294117647058801</v>
       </c>
       <c r="B111">
         <v>510.34653272804701</v>
@@ -3128,7 +3167,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>30.8823529411764</v>
+        <v>30.294117647058801</v>
       </c>
       <c r="B112">
         <v>460.17322765137902</v>
@@ -3152,7 +3191,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>0.87591240875913401</v>
+        <v>0.14705882352941299</v>
       </c>
       <c r="B113">
         <v>36.636145440207201</v>
@@ -3176,7 +3215,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>0.583941605839427</v>
+        <v>0.14705882352941299</v>
       </c>
       <c r="B114">
         <v>42.813323987193897</v>
@@ -3200,7 +3239,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>1.4598540145985399</v>
+        <v>0.14705882352941299</v>
       </c>
       <c r="B115">
         <v>44.321713424760901</v>
@@ -3224,7 +3263,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>0.87591240875913401</v>
+        <v>0.14705882352941299</v>
       </c>
       <c r="B116">
         <v>50.905759020366801</v>
@@ -3248,7 +3287,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>0.87591240875913401</v>
+        <v>0.14705882352941299</v>
       </c>
       <c r="B117">
         <v>58.467872769375802</v>
@@ -3272,7 +3311,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>0.87591240875913401</v>
+        <v>0.14705882352941299</v>
       </c>
       <c r="B118">
         <v>62.660301640726502</v>
@@ -3296,7 +3335,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>0.87591240875913401</v>
+        <v>0.14705882352941299</v>
       </c>
       <c r="B119">
         <v>71.968567300115197</v>
@@ -3320,7 +3359,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>11.0948905109489</v>
+        <v>10.294117647058799</v>
       </c>
       <c r="B120">
         <v>105.33104453709301</v>
@@ -3344,7 +3383,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>11.0948905109489</v>
+        <v>10.294117647058799</v>
       </c>
       <c r="B121">
         <v>116.860885534665</v>
@@ -3368,7 +3407,7 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>10.802919708029201</v>
+        <v>10.294117647058799</v>
       </c>
       <c r="B122">
         <v>129.652816298966</v>
@@ -3392,7 +3431,7 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>10.802919708029201</v>
+        <v>10.294117647058799</v>
       </c>
       <c r="B123">
         <v>143.84498882876599</v>
@@ -3416,7 +3455,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>10.802919708029201</v>
+        <v>10.294117647058799</v>
       </c>
       <c r="B124">
         <v>154.15936928422701</v>
@@ -3440,7 +3479,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>11.3868613138686</v>
+        <v>10.294117647058799</v>
       </c>
       <c r="B125">
         <v>159.59067764047299</v>
@@ -3464,7 +3503,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>11.3868613138686</v>
+        <v>10.294117647058799</v>
       </c>
       <c r="B126">
         <v>143.84498882876599</v>
@@ -3488,7 +3527,7 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>11.6788321167883</v>
+        <v>10.294117647058799</v>
       </c>
       <c r="B127">
         <v>129.652816298966</v>
@@ -3512,7 +3551,7 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>20.729927007299199</v>
+        <v>20.4379562043795</v>
       </c>
       <c r="B128">
         <v>171.034100033784</v>
@@ -3575,7 +3614,7 @@
         <v>5</v>
       </c>
       <c r="F130">
-        <f t="shared" ref="F130:F193" si="2">B130*1.429</f>
+        <f t="shared" ref="F130:G194" si="2">B130*1.429</f>
         <v>345.53406977872538</v>
       </c>
       <c r="G130">
@@ -3584,7 +3623,7 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>20.1459854014598</v>
+        <v>20.4379562043795</v>
       </c>
       <c r="B131">
         <v>268.26957952797198</v>
@@ -3608,7 +3647,7 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>20.729927007299199</v>
+        <v>20.4379562043795</v>
       </c>
       <c r="B132">
         <v>277.72119324293499</v>
@@ -3632,7 +3671,7 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>20.1459854014598</v>
+        <v>20.4379562043795</v>
       </c>
       <c r="B133">
         <v>308.12135887139999</v>
@@ -3656,7 +3695,7 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>20.1459854014598</v>
+        <v>20.4379562043795</v>
       </c>
       <c r="B134">
         <v>341.849214617592</v>
@@ -3824,7 +3863,7 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
-        <v>30.656934306569301</v>
+        <v>30.072992700729898</v>
       </c>
       <c r="B141">
         <v>392.63134017068302</v>
@@ -3848,7 +3887,7 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
-        <v>30.656934306569301</v>
+        <v>30.072992700729898</v>
       </c>
       <c r="B142">
         <v>341.849214617592</v>
@@ -3872,7 +3911,7 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
-        <v>0.87591240875912002</v>
+        <v>0.14705882352941299</v>
       </c>
       <c r="B143">
         <v>37.092695086985103</v>
@@ -3896,7 +3935,7 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
-        <v>0.58394160583941301</v>
+        <v>0.14705882352941299</v>
       </c>
       <c r="B144">
         <v>60.121002987385197</v>
@@ -3920,7 +3959,7 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
-        <v>0.58394160583941301</v>
+        <v>0.14705882352941299</v>
       </c>
       <c r="B145">
         <v>69.016242478279196</v>
@@ -3944,7 +3983,7 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
-        <v>0.58394160583941301</v>
+        <v>0.14705882352941299</v>
       </c>
       <c r="B146">
         <v>79.2275825275252</v>
@@ -3968,7 +4007,7 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
-        <v>0.58394160583941301</v>
+        <v>0.14705882352941299</v>
       </c>
       <c r="B147">
         <v>94.141859337332505</v>
@@ -4016,7 +4055,7 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
-        <v>11.0948905109489</v>
+        <v>10.2189781021897</v>
       </c>
       <c r="B149">
         <v>124.060337641209</v>
@@ -4064,7 +4103,7 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
-        <v>10.8029197080291</v>
+        <v>10.2189781021897</v>
       </c>
       <c r="B151">
         <v>147.414202011062</v>
@@ -4088,7 +4127,7 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
-        <v>10.8029197080291</v>
+        <v>10.2189781021897</v>
       </c>
       <c r="B152">
         <v>169.224959751125</v>
@@ -4112,7 +4151,7 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
-        <v>9.6350364963503594</v>
+        <v>10.2189781021897</v>
       </c>
       <c r="B153">
         <v>169.224959751125</v>
@@ -4184,7 +4223,7 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
-        <v>21.021897810218899</v>
+        <v>20.1459854014598</v>
       </c>
       <c r="B156">
         <v>304.19079466187901</v>
@@ -4232,7 +4271,7 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
-        <v>19.562043795620401</v>
+        <v>20.1459854014598</v>
       </c>
       <c r="B158">
         <v>361.45350002091601</v>
@@ -4280,7 +4319,7 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
-        <v>20.729927007299199</v>
+        <v>20.1459854014598</v>
       </c>
       <c r="B160">
         <v>361.45350002091601</v>
@@ -4304,7 +4343,7 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
-        <v>29.197080291970799</v>
+        <v>29.781021897810199</v>
       </c>
       <c r="B161">
         <v>361.45350002091601</v>
@@ -4352,7 +4391,7 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
-        <v>30.072992700729898</v>
+        <v>29.781021897810199</v>
       </c>
       <c r="B163">
         <v>374.13962607747698</v>
@@ -4376,7 +4415,7 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
-        <v>29.489051094890499</v>
+        <v>29.781021897810199</v>
       </c>
       <c r="B164">
         <v>387.27100385885001</v>
@@ -4448,7 +4487,7 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
-        <v>29.635036496350299</v>
+        <v>29.781021897810199</v>
       </c>
       <c r="B167">
         <v>565.990300645773</v>
@@ -4472,7 +4511,7 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
-        <v>1.16788321167882</v>
+        <v>0</v>
       </c>
       <c r="B168">
         <v>59.315699008638603</v>
@@ -4496,7 +4535,7 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
-        <v>1.16788321167882</v>
+        <v>0</v>
       </c>
       <c r="B169">
         <v>68.198639872088506</v>
@@ -4520,7 +4559,7 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
-        <v>1.4598540145985399</v>
+        <v>0</v>
       </c>
       <c r="B170">
         <v>75.742712458973898</v>
@@ -4544,7 +4583,7 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
-        <v>0.583941605839427</v>
+        <v>0</v>
       </c>
       <c r="B171">
         <v>75.684869911383203</v>
@@ -4568,7 +4607,7 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
-        <v>0.87591240875913401</v>
+        <v>0</v>
       </c>
       <c r="B172">
         <v>84.057062574042305</v>
@@ -4592,7 +4631,7 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
-        <v>1.4598540145985399</v>
+        <v>0</v>
       </c>
       <c r="B173">
         <v>87.085713500104404</v>
@@ -4640,7 +4679,7 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
-        <v>11.0948905109489</v>
+        <v>10.2189781021897</v>
       </c>
       <c r="B175">
         <v>133.479549203104</v>
@@ -4664,7 +4703,7 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
-        <v>9.9270072992700698</v>
+        <v>10.2189781021897</v>
       </c>
       <c r="B176">
         <v>138.077802419215</v>
@@ -4712,7 +4751,7 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
-        <v>10.802919708029201</v>
+        <v>10.2189781021897</v>
       </c>
       <c r="B178">
         <v>164.517926468387</v>
@@ -4736,7 +4775,7 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
-        <v>11.0948905109489</v>
+        <v>10.2189781021897</v>
       </c>
       <c r="B179">
         <v>148.207191212851</v>
@@ -4760,7 +4799,7 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
-        <v>20.583941605839399</v>
+        <v>20.4379562043795</v>
       </c>
       <c r="B180">
         <v>171.81840172135901</v>
@@ -4784,7 +4823,7 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
-        <v>20.729927007299199</v>
+        <v>20.4379562043795</v>
       </c>
       <c r="B181">
         <v>197.57456433185601</v>
@@ -4808,7 +4847,7 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
-        <v>20.729927007299199</v>
+        <v>20.4379562043795</v>
       </c>
       <c r="B182">
         <v>227.16273745321001</v>
@@ -4880,7 +4919,7 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
-        <v>19.562043795620401</v>
+        <v>20.4379562043795</v>
       </c>
       <c r="B185">
         <v>260.916037404919</v>
@@ -4904,7 +4943,7 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
-        <v>21.167883211678799</v>
+        <v>20.4379562043795</v>
       </c>
       <c r="B186">
         <v>261.28173223563999</v>
@@ -5094,7 +5133,4856 @@
         <v>704.995587</v>
       </c>
     </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>0</v>
+      </c>
+      <c r="B194">
+        <v>69.570127467415503</v>
+      </c>
+      <c r="C194" t="s">
+        <v>23</v>
+      </c>
+      <c r="D194" t="s">
+        <v>24</v>
+      </c>
+      <c r="E194" t="s">
+        <v>25</v>
+      </c>
+      <c r="F194">
+        <f t="shared" si="2"/>
+        <v>99.415712150936756</v>
+      </c>
+      <c r="G194">
+        <v>99.415712150936756</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>0</v>
+      </c>
+      <c r="B195">
+        <v>69.539614296418705</v>
+      </c>
+      <c r="C195" t="s">
+        <v>23</v>
+      </c>
+      <c r="D195" t="s">
+        <v>24</v>
+      </c>
+      <c r="E195" t="s">
+        <v>25</v>
+      </c>
+      <c r="F195">
+        <f t="shared" ref="F195:G258" si="3">B195*1.429</f>
+        <v>99.372108829582331</v>
+      </c>
+      <c r="G195">
+        <v>99.372108829582331</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>0</v>
+      </c>
+      <c r="B196">
+        <v>77.770568470339796</v>
+      </c>
+      <c r="C196" t="s">
+        <v>23</v>
+      </c>
+      <c r="D196" t="s">
+        <v>24</v>
+      </c>
+      <c r="E196" t="s">
+        <v>25</v>
+      </c>
+      <c r="F196">
+        <f t="shared" si="3"/>
+        <v>111.13414234411557</v>
+      </c>
+      <c r="G196">
+        <v>111.13414234411557</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>0</v>
+      </c>
+      <c r="B197">
+        <v>76.361926318985596</v>
+      </c>
+      <c r="C197" t="s">
+        <v>23</v>
+      </c>
+      <c r="D197" t="s">
+        <v>24</v>
+      </c>
+      <c r="E197" t="s">
+        <v>25</v>
+      </c>
+      <c r="F197">
+        <f t="shared" si="3"/>
+        <v>109.12119270983042</v>
+      </c>
+      <c r="G197">
+        <v>109.12119270983042</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>0</v>
+      </c>
+      <c r="B198">
+        <v>95.473776018048</v>
+      </c>
+      <c r="C198" t="s">
+        <v>23</v>
+      </c>
+      <c r="D198" t="s">
+        <v>24</v>
+      </c>
+      <c r="E198" t="s">
+        <v>25</v>
+      </c>
+      <c r="F198">
+        <f t="shared" si="3"/>
+        <v>136.4320259297906</v>
+      </c>
+      <c r="G198">
+        <v>136.4320259297906</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>0</v>
+      </c>
+      <c r="B199">
+        <v>108.79176306312399</v>
+      </c>
+      <c r="C199" t="s">
+        <v>23</v>
+      </c>
+      <c r="D199" t="s">
+        <v>24</v>
+      </c>
+      <c r="E199" t="s">
+        <v>25</v>
+      </c>
+      <c r="F199">
+        <f t="shared" si="3"/>
+        <v>155.4634294172042</v>
+      </c>
+      <c r="G199">
+        <v>155.4634294172042</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>10</v>
+      </c>
+      <c r="B200">
+        <v>167.80293606342701</v>
+      </c>
+      <c r="C200" t="s">
+        <v>23</v>
+      </c>
+      <c r="D200" t="s">
+        <v>24</v>
+      </c>
+      <c r="E200" t="s">
+        <v>25</v>
+      </c>
+      <c r="F200">
+        <f t="shared" si="3"/>
+        <v>239.79039563463721</v>
+      </c>
+      <c r="G200">
+        <v>239.79039563463721</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>10</v>
+      </c>
+      <c r="B201">
+        <v>117.73935382930701</v>
+      </c>
+      <c r="C201" t="s">
+        <v>23</v>
+      </c>
+      <c r="D201" t="s">
+        <v>24</v>
+      </c>
+      <c r="E201" t="s">
+        <v>25</v>
+      </c>
+      <c r="F201">
+        <f t="shared" si="3"/>
+        <v>168.24953662207972</v>
+      </c>
+      <c r="G201">
+        <v>168.24953662207972</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>10</v>
+      </c>
+      <c r="B202">
+        <v>105.27824874936</v>
+      </c>
+      <c r="C202" t="s">
+        <v>23</v>
+      </c>
+      <c r="D202" t="s">
+        <v>24</v>
+      </c>
+      <c r="E202" t="s">
+        <v>25</v>
+      </c>
+      <c r="F202">
+        <f t="shared" si="3"/>
+        <v>150.44261746283544</v>
+      </c>
+      <c r="G202">
+        <v>150.44261746283544</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>10</v>
+      </c>
+      <c r="B203">
+        <v>105.32444361596799</v>
+      </c>
+      <c r="C203" t="s">
+        <v>23</v>
+      </c>
+      <c r="D203" t="s">
+        <v>24</v>
+      </c>
+      <c r="E203" t="s">
+        <v>25</v>
+      </c>
+      <c r="F203">
+        <f t="shared" si="3"/>
+        <v>150.50862992721827</v>
+      </c>
+      <c r="G203">
+        <v>150.50862992721827</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>10</v>
+      </c>
+      <c r="B204">
+        <v>117.79101648336101</v>
+      </c>
+      <c r="C204" t="s">
+        <v>23</v>
+      </c>
+      <c r="D204" t="s">
+        <v>24</v>
+      </c>
+      <c r="E204" t="s">
+        <v>25</v>
+      </c>
+      <c r="F204">
+        <f t="shared" si="3"/>
+        <v>168.32336255472288</v>
+      </c>
+      <c r="G204">
+        <v>168.32336255472288</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>10</v>
+      </c>
+      <c r="B205">
+        <v>90.703664093345395</v>
+      </c>
+      <c r="C205" t="s">
+        <v>23</v>
+      </c>
+      <c r="D205" t="s">
+        <v>24</v>
+      </c>
+      <c r="E205" t="s">
+        <v>25</v>
+      </c>
+      <c r="F205">
+        <f t="shared" si="3"/>
+        <v>129.61553598939057</v>
+      </c>
+      <c r="G205">
+        <v>129.61553598939057</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>20</v>
+      </c>
+      <c r="B206">
+        <v>168.565338944541</v>
+      </c>
+      <c r="C206" t="s">
+        <v>23</v>
+      </c>
+      <c r="D206" t="s">
+        <v>24</v>
+      </c>
+      <c r="E206" t="s">
+        <v>25</v>
+      </c>
+      <c r="F206">
+        <f t="shared" si="3"/>
+        <v>240.87986935174908</v>
+      </c>
+      <c r="G206">
+        <v>240.87986935174908</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>20</v>
+      </c>
+      <c r="B207">
+        <v>153.56153624829699</v>
+      </c>
+      <c r="C207" t="s">
+        <v>23</v>
+      </c>
+      <c r="D207" t="s">
+        <v>24</v>
+      </c>
+      <c r="E207" t="s">
+        <v>25</v>
+      </c>
+      <c r="F207">
+        <f t="shared" si="3"/>
+        <v>219.43943529881639</v>
+      </c>
+      <c r="G207">
+        <v>219.43943529881639</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>20</v>
+      </c>
+      <c r="B208">
+        <v>116.098058821173</v>
+      </c>
+      <c r="C208" t="s">
+        <v>23</v>
+      </c>
+      <c r="D208" t="s">
+        <v>24</v>
+      </c>
+      <c r="E208" t="s">
+        <v>25</v>
+      </c>
+      <c r="F208">
+        <f t="shared" si="3"/>
+        <v>165.90412605545623</v>
+      </c>
+      <c r="G208">
+        <v>165.90412605545623</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>20</v>
+      </c>
+      <c r="B209">
+        <v>109.766534523289</v>
+      </c>
+      <c r="C209" t="s">
+        <v>23</v>
+      </c>
+      <c r="D209" t="s">
+        <v>24</v>
+      </c>
+      <c r="E209" t="s">
+        <v>25</v>
+      </c>
+      <c r="F209">
+        <f t="shared" si="3"/>
+        <v>156.85637783377999</v>
+      </c>
+      <c r="G209">
+        <v>156.85637783377999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>20</v>
+      </c>
+      <c r="B210">
+        <v>101.86330947195999</v>
+      </c>
+      <c r="C210" t="s">
+        <v>23</v>
+      </c>
+      <c r="D210" t="s">
+        <v>24</v>
+      </c>
+      <c r="E210" t="s">
+        <v>25</v>
+      </c>
+      <c r="F210">
+        <f t="shared" si="3"/>
+        <v>145.56266923543083</v>
+      </c>
+      <c r="G210">
+        <v>145.56266923543083</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>20</v>
+      </c>
+      <c r="B211">
+        <v>94.577512201978195</v>
+      </c>
+      <c r="C211" t="s">
+        <v>23</v>
+      </c>
+      <c r="D211" t="s">
+        <v>24</v>
+      </c>
+      <c r="E211" t="s">
+        <v>25</v>
+      </c>
+      <c r="F211">
+        <f t="shared" si="3"/>
+        <v>135.15126493662683</v>
+      </c>
+      <c r="G211">
+        <v>135.15126493662683</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>20</v>
+      </c>
+      <c r="B212">
+        <v>100.04022152802</v>
+      </c>
+      <c r="C212" t="s">
+        <v>23</v>
+      </c>
+      <c r="D212" t="s">
+        <v>24</v>
+      </c>
+      <c r="E212" t="s">
+        <v>25</v>
+      </c>
+      <c r="F212">
+        <f t="shared" si="3"/>
+        <v>142.95747656354058</v>
+      </c>
+      <c r="G212">
+        <v>142.95747656354058</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>20</v>
+      </c>
+      <c r="B213">
+        <v>107.77047612144599</v>
+      </c>
+      <c r="C213" t="s">
+        <v>23</v>
+      </c>
+      <c r="D213" t="s">
+        <v>24</v>
+      </c>
+      <c r="E213" t="s">
+        <v>25</v>
+      </c>
+      <c r="F213">
+        <f t="shared" si="3"/>
+        <v>154.00401037754634</v>
+      </c>
+      <c r="G213">
+        <v>154.00401037754634</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>30</v>
+      </c>
+      <c r="B214">
+        <v>454.90273929545799</v>
+      </c>
+      <c r="C214" t="s">
+        <v>23</v>
+      </c>
+      <c r="D214" t="s">
+        <v>24</v>
+      </c>
+      <c r="E214" t="s">
+        <v>25</v>
+      </c>
+      <c r="F214">
+        <f t="shared" si="3"/>
+        <v>650.05601445320951</v>
+      </c>
+      <c r="G214">
+        <v>650.05601445320951</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>30</v>
+      </c>
+      <c r="B215">
+        <v>430.21996563558002</v>
+      </c>
+      <c r="C215" t="s">
+        <v>23</v>
+      </c>
+      <c r="D215" t="s">
+        <v>24</v>
+      </c>
+      <c r="E215" t="s">
+        <v>25</v>
+      </c>
+      <c r="F215">
+        <f t="shared" si="3"/>
+        <v>614.78433089324392</v>
+      </c>
+      <c r="G215">
+        <v>614.78433089324392</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>30</v>
+      </c>
+      <c r="B216">
+        <v>399.21480283659702</v>
+      </c>
+      <c r="C216" t="s">
+        <v>23</v>
+      </c>
+      <c r="D216" t="s">
+        <v>24</v>
+      </c>
+      <c r="E216" t="s">
+        <v>25</v>
+      </c>
+      <c r="F216">
+        <f t="shared" si="3"/>
+        <v>570.47795325349716</v>
+      </c>
+      <c r="G216">
+        <v>570.47795325349716</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>30</v>
+      </c>
+      <c r="B217">
+        <v>296.22398976127801</v>
+      </c>
+      <c r="C217" t="s">
+        <v>23</v>
+      </c>
+      <c r="D217" t="s">
+        <v>24</v>
+      </c>
+      <c r="E217" t="s">
+        <v>25</v>
+      </c>
+      <c r="F217">
+        <f t="shared" si="3"/>
+        <v>423.30408136886626</v>
+      </c>
+      <c r="G217">
+        <v>423.30408136886626</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>30</v>
+      </c>
+      <c r="B218">
+        <v>264.814627416718</v>
+      </c>
+      <c r="C218" t="s">
+        <v>23</v>
+      </c>
+      <c r="D218" t="s">
+        <v>24</v>
+      </c>
+      <c r="E218" t="s">
+        <v>25</v>
+      </c>
+      <c r="F218">
+        <f t="shared" si="3"/>
+        <v>378.42010257849</v>
+      </c>
+      <c r="G218">
+        <v>378.42010257849</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>30</v>
+      </c>
+      <c r="B219">
+        <v>269.95611223754702</v>
+      </c>
+      <c r="C219" t="s">
+        <v>23</v>
+      </c>
+      <c r="D219" t="s">
+        <v>24</v>
+      </c>
+      <c r="E219" t="s">
+        <v>25</v>
+      </c>
+      <c r="F219">
+        <f t="shared" si="3"/>
+        <v>385.76728438745471</v>
+      </c>
+      <c r="G219">
+        <v>385.76728438745471</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>30</v>
+      </c>
+      <c r="B220">
+        <v>264.89208679753102</v>
+      </c>
+      <c r="C220" t="s">
+        <v>23</v>
+      </c>
+      <c r="D220" t="s">
+        <v>24</v>
+      </c>
+      <c r="E220" t="s">
+        <v>25</v>
+      </c>
+      <c r="F220">
+        <f t="shared" si="3"/>
+        <v>378.53079203367184</v>
+      </c>
+      <c r="G220">
+        <v>378.53079203367184</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>30</v>
+      </c>
+      <c r="B221">
+        <v>241.29671035459799</v>
+      </c>
+      <c r="C221" t="s">
+        <v>23</v>
+      </c>
+      <c r="D221" t="s">
+        <v>24</v>
+      </c>
+      <c r="E221" t="s">
+        <v>25</v>
+      </c>
+      <c r="F221">
+        <f t="shared" si="3"/>
+        <v>344.81299909672055</v>
+      </c>
+      <c r="G221">
+        <v>344.81299909672055</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>30</v>
+      </c>
+      <c r="B222">
+        <v>250.57414356641399</v>
+      </c>
+      <c r="C222" t="s">
+        <v>23</v>
+      </c>
+      <c r="D222" t="s">
+        <v>24</v>
+      </c>
+      <c r="E222" t="s">
+        <v>25</v>
+      </c>
+      <c r="F222">
+        <f t="shared" si="3"/>
+        <v>358.07045115640562</v>
+      </c>
+      <c r="G222">
+        <v>358.07045115640562</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>0</v>
+      </c>
+      <c r="B223">
+        <v>58.141162076006097</v>
+      </c>
+      <c r="C223" t="s">
+        <v>23</v>
+      </c>
+      <c r="D223" t="s">
+        <v>26</v>
+      </c>
+      <c r="E223" t="s">
+        <v>25</v>
+      </c>
+      <c r="F223">
+        <f t="shared" si="3"/>
+        <v>83.083720606612715</v>
+      </c>
+      <c r="G223">
+        <v>83.083720606612715</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>0</v>
+      </c>
+      <c r="B224">
+        <v>66.267143802223799</v>
+      </c>
+      <c r="C224" t="s">
+        <v>23</v>
+      </c>
+      <c r="D224" t="s">
+        <v>26</v>
+      </c>
+      <c r="E224" t="s">
+        <v>25</v>
+      </c>
+      <c r="F224">
+        <f t="shared" si="3"/>
+        <v>94.695748493377806</v>
+      </c>
+      <c r="G224">
+        <v>94.695748493377806</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>0</v>
+      </c>
+      <c r="B225">
+        <v>71.409264698825396</v>
+      </c>
+      <c r="C225" t="s">
+        <v>23</v>
+      </c>
+      <c r="D225" t="s">
+        <v>26</v>
+      </c>
+      <c r="E225" t="s">
+        <v>25</v>
+      </c>
+      <c r="F225">
+        <f t="shared" si="3"/>
+        <v>102.04383925462149</v>
+      </c>
+      <c r="G225">
+        <v>102.04383925462149</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>0</v>
+      </c>
+      <c r="B226">
+        <v>70.131407268837805</v>
+      </c>
+      <c r="C226" t="s">
+        <v>23</v>
+      </c>
+      <c r="D226" t="s">
+        <v>26</v>
+      </c>
+      <c r="E226" t="s">
+        <v>25</v>
+      </c>
+      <c r="F226">
+        <f t="shared" si="3"/>
+        <v>100.21778098716922</v>
+      </c>
+      <c r="G226">
+        <v>100.21778098716922</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>0</v>
+      </c>
+      <c r="B227">
+        <v>74.166327224102005</v>
+      </c>
+      <c r="C227" t="s">
+        <v>23</v>
+      </c>
+      <c r="D227" t="s">
+        <v>26</v>
+      </c>
+      <c r="E227" t="s">
+        <v>25</v>
+      </c>
+      <c r="F227">
+        <f t="shared" si="3"/>
+        <v>105.98368160324176</v>
+      </c>
+      <c r="G227">
+        <v>105.98368160324176</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>0</v>
+      </c>
+      <c r="B228">
+        <v>78.444953272113807</v>
+      </c>
+      <c r="C228" t="s">
+        <v>23</v>
+      </c>
+      <c r="D228" t="s">
+        <v>26</v>
+      </c>
+      <c r="E228" t="s">
+        <v>25</v>
+      </c>
+      <c r="F228">
+        <f t="shared" si="3"/>
+        <v>112.09783822585064</v>
+      </c>
+      <c r="G228">
+        <v>112.09783822585064</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>10</v>
+      </c>
+      <c r="B229">
+        <v>106.29253987722799</v>
+      </c>
+      <c r="C229" t="s">
+        <v>23</v>
+      </c>
+      <c r="D229" t="s">
+        <v>26</v>
+      </c>
+      <c r="E229" t="s">
+        <v>25</v>
+      </c>
+      <c r="F229">
+        <f t="shared" si="3"/>
+        <v>151.89203948455881</v>
+      </c>
+      <c r="G229">
+        <v>151.89203948455881</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>10</v>
+      </c>
+      <c r="B230">
+        <v>118.927769167679</v>
+      </c>
+      <c r="C230" t="s">
+        <v>23</v>
+      </c>
+      <c r="D230" t="s">
+        <v>26</v>
+      </c>
+      <c r="E230" t="s">
+        <v>25</v>
+      </c>
+      <c r="F230">
+        <f t="shared" si="3"/>
+        <v>169.9477821406133</v>
+      </c>
+      <c r="G230">
+        <v>169.9477821406133</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>10</v>
+      </c>
+      <c r="B231">
+        <v>130.597143840233</v>
+      </c>
+      <c r="C231" t="s">
+        <v>23</v>
+      </c>
+      <c r="D231" t="s">
+        <v>26</v>
+      </c>
+      <c r="E231" t="s">
+        <v>25</v>
+      </c>
+      <c r="F231">
+        <f t="shared" si="3"/>
+        <v>186.62331854769297</v>
+      </c>
+      <c r="G231">
+        <v>186.62331854769297</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>10</v>
+      </c>
+      <c r="B232">
+        <v>143.41153541003101</v>
+      </c>
+      <c r="C232" t="s">
+        <v>23</v>
+      </c>
+      <c r="D232" t="s">
+        <v>26</v>
+      </c>
+      <c r="E232" t="s">
+        <v>25</v>
+      </c>
+      <c r="F232">
+        <f t="shared" si="3"/>
+        <v>204.93508410093432</v>
+      </c>
+      <c r="G232">
+        <v>204.93508410093432</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>10</v>
+      </c>
+      <c r="B233">
+        <v>154.52842784065299</v>
+      </c>
+      <c r="C233" t="s">
+        <v>23</v>
+      </c>
+      <c r="D233" t="s">
+        <v>26</v>
+      </c>
+      <c r="E233" t="s">
+        <v>25</v>
+      </c>
+      <c r="F233">
+        <f t="shared" si="3"/>
+        <v>220.82112338429314</v>
+      </c>
+      <c r="G233">
+        <v>220.82112338429314</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>10</v>
+      </c>
+      <c r="B234">
+        <v>169.71600844776799</v>
+      </c>
+      <c r="C234" t="s">
+        <v>23</v>
+      </c>
+      <c r="D234" t="s">
+        <v>26</v>
+      </c>
+      <c r="E234" t="s">
+        <v>25</v>
+      </c>
+      <c r="F234">
+        <f t="shared" si="3"/>
+        <v>242.52417607186047</v>
+      </c>
+      <c r="G234">
+        <v>242.52417607186047</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>10</v>
+      </c>
+      <c r="B235">
+        <v>189.904521463273</v>
+      </c>
+      <c r="C235" t="s">
+        <v>23</v>
+      </c>
+      <c r="D235" t="s">
+        <v>26</v>
+      </c>
+      <c r="E235" t="s">
+        <v>25</v>
+      </c>
+      <c r="F235">
+        <f t="shared" si="3"/>
+        <v>271.37356117101712</v>
+      </c>
+      <c r="G235">
+        <v>271.37356117101712</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>20</v>
+      </c>
+      <c r="B236">
+        <v>194.40790077491201</v>
+      </c>
+      <c r="C236" t="s">
+        <v>23</v>
+      </c>
+      <c r="D236" t="s">
+        <v>26</v>
+      </c>
+      <c r="E236" t="s">
+        <v>25</v>
+      </c>
+      <c r="F236">
+        <f t="shared" si="3"/>
+        <v>277.80889020734929</v>
+      </c>
+      <c r="G236">
+        <v>277.80889020734929</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>20</v>
+      </c>
+      <c r="B237">
+        <v>209.52422163578501</v>
+      </c>
+      <c r="C237" t="s">
+        <v>23</v>
+      </c>
+      <c r="D237" t="s">
+        <v>26</v>
+      </c>
+      <c r="E237" t="s">
+        <v>25</v>
+      </c>
+      <c r="F237">
+        <f t="shared" si="3"/>
+        <v>299.41011271753678</v>
+      </c>
+      <c r="G237">
+        <v>299.41011271753678</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>20</v>
+      </c>
+      <c r="B238">
+        <v>225.79928010677199</v>
+      </c>
+      <c r="C238" t="s">
+        <v>23</v>
+      </c>
+      <c r="D238" t="s">
+        <v>26</v>
+      </c>
+      <c r="E238" t="s">
+        <v>25</v>
+      </c>
+      <c r="F238">
+        <f t="shared" si="3"/>
+        <v>322.66717127257721</v>
+      </c>
+      <c r="G238">
+        <v>322.66717127257721</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>20</v>
+      </c>
+      <c r="B239">
+        <v>272.304848484216</v>
+      </c>
+      <c r="C239" t="s">
+        <v>23</v>
+      </c>
+      <c r="D239" t="s">
+        <v>26</v>
+      </c>
+      <c r="E239" t="s">
+        <v>25</v>
+      </c>
+      <c r="F239">
+        <f t="shared" si="3"/>
+        <v>389.12362848394469</v>
+      </c>
+      <c r="G239">
+        <v>389.12362848394469</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>20</v>
+      </c>
+      <c r="B240">
+        <v>293.369971331687</v>
+      </c>
+      <c r="C240" t="s">
+        <v>23</v>
+      </c>
+      <c r="D240" t="s">
+        <v>26</v>
+      </c>
+      <c r="E240" t="s">
+        <v>25</v>
+      </c>
+      <c r="F240">
+        <f t="shared" si="3"/>
+        <v>419.22568903298071</v>
+      </c>
+      <c r="G240">
+        <v>419.22568903298071</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>20</v>
+      </c>
+      <c r="B241">
+        <v>293.54299700387401</v>
+      </c>
+      <c r="C241" t="s">
+        <v>23</v>
+      </c>
+      <c r="D241" t="s">
+        <v>26</v>
+      </c>
+      <c r="E241" t="s">
+        <v>25</v>
+      </c>
+      <c r="F241">
+        <f t="shared" si="3"/>
+        <v>419.47294271853599</v>
+      </c>
+      <c r="G241">
+        <v>419.47294271853599</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>20</v>
+      </c>
+      <c r="B242">
+        <v>293.47810042126002</v>
+      </c>
+      <c r="C242" t="s">
+        <v>23</v>
+      </c>
+      <c r="D242" t="s">
+        <v>26</v>
+      </c>
+      <c r="E242" t="s">
+        <v>25</v>
+      </c>
+      <c r="F242">
+        <f t="shared" si="3"/>
+        <v>419.38020550198058</v>
+      </c>
+      <c r="G242">
+        <v>419.38020550198058</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>20</v>
+      </c>
+      <c r="B243">
+        <v>316.25107336506301</v>
+      </c>
+      <c r="C243" t="s">
+        <v>23</v>
+      </c>
+      <c r="D243" t="s">
+        <v>26</v>
+      </c>
+      <c r="E243" t="s">
+        <v>25</v>
+      </c>
+      <c r="F243">
+        <f t="shared" si="3"/>
+        <v>451.92278383867506</v>
+      </c>
+      <c r="G243">
+        <v>451.92278383867506</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>20</v>
+      </c>
+      <c r="B244">
+        <v>353.870617739176</v>
+      </c>
+      <c r="C244" t="s">
+        <v>23</v>
+      </c>
+      <c r="D244" t="s">
+        <v>26</v>
+      </c>
+      <c r="E244" t="s">
+        <v>25</v>
+      </c>
+      <c r="F244">
+        <f t="shared" si="3"/>
+        <v>505.68111274928253</v>
+      </c>
+      <c r="G244">
+        <v>505.68111274928253</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>30</v>
+      </c>
+      <c r="B245">
+        <v>218.481611375634</v>
+      </c>
+      <c r="C245" t="s">
+        <v>23</v>
+      </c>
+      <c r="D245" t="s">
+        <v>26</v>
+      </c>
+      <c r="E245" t="s">
+        <v>25</v>
+      </c>
+      <c r="F245">
+        <f t="shared" si="3"/>
+        <v>312.21022265578102</v>
+      </c>
+      <c r="G245">
+        <v>312.21022265578102</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>30</v>
+      </c>
+      <c r="B246">
+        <v>342.40243257457399</v>
+      </c>
+      <c r="C246" t="s">
+        <v>23</v>
+      </c>
+      <c r="D246" t="s">
+        <v>26</v>
+      </c>
+      <c r="E246" t="s">
+        <v>25</v>
+      </c>
+      <c r="F246">
+        <f t="shared" si="3"/>
+        <v>489.29307614906628</v>
+      </c>
+      <c r="G246">
+        <v>489.29307614906628</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>30</v>
+      </c>
+      <c r="B247">
+        <v>383.16104198171399</v>
+      </c>
+      <c r="C247" t="s">
+        <v>23</v>
+      </c>
+      <c r="D247" t="s">
+        <v>26</v>
+      </c>
+      <c r="E247" t="s">
+        <v>25</v>
+      </c>
+      <c r="F247">
+        <f t="shared" si="3"/>
+        <v>547.53712899186928</v>
+      </c>
+      <c r="G247">
+        <v>547.53712899186928</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>30</v>
+      </c>
+      <c r="B248">
+        <v>420.788401296534</v>
+      </c>
+      <c r="C248" t="s">
+        <v>23</v>
+      </c>
+      <c r="D248" t="s">
+        <v>26</v>
+      </c>
+      <c r="E248" t="s">
+        <v>25</v>
+      </c>
+      <c r="F248">
+        <f t="shared" si="3"/>
+        <v>601.30662545274708</v>
+      </c>
+      <c r="G248">
+        <v>601.30662545274708</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>30</v>
+      </c>
+      <c r="B249">
+        <v>405.17585454396698</v>
+      </c>
+      <c r="C249" t="s">
+        <v>23</v>
+      </c>
+      <c r="D249" t="s">
+        <v>26</v>
+      </c>
+      <c r="E249" t="s">
+        <v>25</v>
+      </c>
+      <c r="F249">
+        <f t="shared" si="3"/>
+        <v>578.99629614332878</v>
+      </c>
+      <c r="G249">
+        <v>578.99629614332878</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>30</v>
+      </c>
+      <c r="B250">
+        <v>453.34000445543199</v>
+      </c>
+      <c r="C250" t="s">
+        <v>23</v>
+      </c>
+      <c r="D250" t="s">
+        <v>26</v>
+      </c>
+      <c r="E250" t="s">
+        <v>25</v>
+      </c>
+      <c r="F250">
+        <f t="shared" si="3"/>
+        <v>647.82286636681238</v>
+      </c>
+      <c r="G250">
+        <v>647.82286636681238</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>30</v>
+      </c>
+      <c r="B251">
+        <v>497.89580532850198</v>
+      </c>
+      <c r="C251" t="s">
+        <v>23</v>
+      </c>
+      <c r="D251" t="s">
+        <v>26</v>
+      </c>
+      <c r="E251" t="s">
+        <v>25</v>
+      </c>
+      <c r="F251">
+        <f t="shared" si="3"/>
+        <v>711.49310581442933</v>
+      </c>
+      <c r="G251">
+        <v>711.49310581442933</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>30</v>
+      </c>
+      <c r="B252">
+        <v>557.08178084800102</v>
+      </c>
+      <c r="C252" t="s">
+        <v>23</v>
+      </c>
+      <c r="D252" t="s">
+        <v>26</v>
+      </c>
+      <c r="E252" t="s">
+        <v>25</v>
+      </c>
+      <c r="F252">
+        <f t="shared" si="3"/>
+        <v>796.06986483179344</v>
+      </c>
+      <c r="G252">
+        <v>796.06986483179344</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>0</v>
+      </c>
+      <c r="B253">
+        <v>44.173447031400698</v>
+      </c>
+      <c r="C253" t="s">
+        <v>10</v>
+      </c>
+      <c r="D253" t="s">
+        <v>27</v>
+      </c>
+      <c r="E253" t="s">
+        <v>25</v>
+      </c>
+      <c r="F253">
+        <f t="shared" si="3"/>
+        <v>63.1238558078716</v>
+      </c>
+      <c r="G253">
+        <v>63.1238558078716</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>0</v>
+      </c>
+      <c r="B254">
+        <v>48.471211082426798</v>
+      </c>
+      <c r="C254" t="s">
+        <v>10</v>
+      </c>
+      <c r="D254" t="s">
+        <v>27</v>
+      </c>
+      <c r="E254" t="s">
+        <v>25</v>
+      </c>
+      <c r="F254">
+        <f t="shared" si="3"/>
+        <v>69.265360636787904</v>
+      </c>
+      <c r="G254">
+        <v>69.265360636787904</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>0</v>
+      </c>
+      <c r="B255">
+        <v>53.187117186645501</v>
+      </c>
+      <c r="C255" t="s">
+        <v>10</v>
+      </c>
+      <c r="D255" t="s">
+        <v>27</v>
+      </c>
+      <c r="E255" t="s">
+        <v>25</v>
+      </c>
+      <c r="F255">
+        <f t="shared" si="3"/>
+        <v>76.004390459716419</v>
+      </c>
+      <c r="G255">
+        <v>76.004390459716419</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>0</v>
+      </c>
+      <c r="B256">
+        <v>57.288112837756003</v>
+      </c>
+      <c r="C256" t="s">
+        <v>10</v>
+      </c>
+      <c r="D256" t="s">
+        <v>27</v>
+      </c>
+      <c r="E256" t="s">
+        <v>25</v>
+      </c>
+      <c r="F256">
+        <f t="shared" si="3"/>
+        <v>81.864713245153325</v>
+      </c>
+      <c r="G256">
+        <v>81.864713245153325</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>0</v>
+      </c>
+      <c r="B257">
+        <v>61.705315988351899</v>
+      </c>
+      <c r="C257" t="s">
+        <v>10</v>
+      </c>
+      <c r="D257" t="s">
+        <v>27</v>
+      </c>
+      <c r="E257" t="s">
+        <v>25</v>
+      </c>
+      <c r="F257">
+        <f t="shared" si="3"/>
+        <v>88.176896547354872</v>
+      </c>
+      <c r="G257">
+        <v>88.176896547354872</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>0</v>
+      </c>
+      <c r="B258">
+        <v>64.040042711972802</v>
+      </c>
+      <c r="C258" t="s">
+        <v>10</v>
+      </c>
+      <c r="D258" t="s">
+        <v>27</v>
+      </c>
+      <c r="E258" t="s">
+        <v>25</v>
+      </c>
+      <c r="F258">
+        <f t="shared" si="3"/>
+        <v>91.513221035409131</v>
+      </c>
+      <c r="G258">
+        <v>91.513221035409131</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>0</v>
+      </c>
+      <c r="B259">
+        <v>70.270686048410994</v>
+      </c>
+      <c r="C259" t="s">
+        <v>10</v>
+      </c>
+      <c r="D259" t="s">
+        <v>27</v>
+      </c>
+      <c r="E259" t="s">
+        <v>25</v>
+      </c>
+      <c r="F259">
+        <f t="shared" ref="F259:G322" si="4">B259*1.429</f>
+        <v>100.41681036317931</v>
+      </c>
+      <c r="G259">
+        <v>100.41681036317931</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>10</v>
+      </c>
+      <c r="B260">
+        <v>262.63635276533302</v>
+      </c>
+      <c r="C260" t="s">
+        <v>10</v>
+      </c>
+      <c r="D260" t="s">
+        <v>27</v>
+      </c>
+      <c r="E260" t="s">
+        <v>25</v>
+      </c>
+      <c r="F260">
+        <f t="shared" si="4"/>
+        <v>375.30734810166086</v>
+      </c>
+      <c r="G260">
+        <v>375.30734810166086</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>10</v>
+      </c>
+      <c r="B261">
+        <v>234.94583037971799</v>
+      </c>
+      <c r="C261" t="s">
+        <v>10</v>
+      </c>
+      <c r="D261" t="s">
+        <v>27</v>
+      </c>
+      <c r="E261" t="s">
+        <v>25</v>
+      </c>
+      <c r="F261">
+        <f t="shared" si="4"/>
+        <v>335.737591612617</v>
+      </c>
+      <c r="G261">
+        <v>335.737591612617</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>10</v>
+      </c>
+      <c r="B262">
+        <v>210.174801133248</v>
+      </c>
+      <c r="C262" t="s">
+        <v>10</v>
+      </c>
+      <c r="D262" t="s">
+        <v>27</v>
+      </c>
+      <c r="E262" t="s">
+        <v>25</v>
+      </c>
+      <c r="F262">
+        <f t="shared" si="4"/>
+        <v>300.33979081941141</v>
+      </c>
+      <c r="G262">
+        <v>300.33979081941141</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>10</v>
+      </c>
+      <c r="B263">
+        <v>202.51239642429999</v>
+      </c>
+      <c r="C263" t="s">
+        <v>10</v>
+      </c>
+      <c r="D263" t="s">
+        <v>27</v>
+      </c>
+      <c r="E263" t="s">
+        <v>25</v>
+      </c>
+      <c r="F263">
+        <f t="shared" si="4"/>
+        <v>289.39021449032469</v>
+      </c>
+      <c r="G263">
+        <v>289.39021449032469</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>10</v>
+      </c>
+      <c r="B264">
+        <v>181.16091942004101</v>
+      </c>
+      <c r="C264" t="s">
+        <v>10</v>
+      </c>
+      <c r="D264" t="s">
+        <v>27</v>
+      </c>
+      <c r="E264" t="s">
+        <v>25</v>
+      </c>
+      <c r="F264">
+        <f t="shared" si="4"/>
+        <v>258.87895385123863</v>
+      </c>
+      <c r="G264">
+        <v>258.87895385123863</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>10</v>
+      </c>
+      <c r="B265">
+        <v>181.16091942004101</v>
+      </c>
+      <c r="C265" t="s">
+        <v>10</v>
+      </c>
+      <c r="D265" t="s">
+        <v>27</v>
+      </c>
+      <c r="E265" t="s">
+        <v>25</v>
+      </c>
+      <c r="F265">
+        <f t="shared" si="4"/>
+        <v>258.87895385123863</v>
+      </c>
+      <c r="G265">
+        <v>258.87895385123863</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>10</v>
+      </c>
+      <c r="B266">
+        <v>195.12934226359599</v>
+      </c>
+      <c r="C266" t="s">
+        <v>10</v>
+      </c>
+      <c r="D266" t="s">
+        <v>27</v>
+      </c>
+      <c r="E266" t="s">
+        <v>25</v>
+      </c>
+      <c r="F266">
+        <f t="shared" si="4"/>
+        <v>278.83983009467869</v>
+      </c>
+      <c r="G266">
+        <v>278.83983009467869</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>20</v>
+      </c>
+      <c r="B267">
+        <v>328.19278725114702</v>
+      </c>
+      <c r="C267" t="s">
+        <v>10</v>
+      </c>
+      <c r="D267" t="s">
+        <v>27</v>
+      </c>
+      <c r="E267" t="s">
+        <v>25</v>
+      </c>
+      <c r="F267">
+        <f t="shared" si="4"/>
+        <v>468.98749298188909</v>
+      </c>
+      <c r="G267">
+        <v>468.98749298188909</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>20</v>
+      </c>
+      <c r="B268">
+        <v>353.49811050301003</v>
+      </c>
+      <c r="C268" t="s">
+        <v>10</v>
+      </c>
+      <c r="D268" t="s">
+        <v>27</v>
+      </c>
+      <c r="E268" t="s">
+        <v>25</v>
+      </c>
+      <c r="F268">
+        <f t="shared" si="4"/>
+        <v>505.14879990880132</v>
+      </c>
+      <c r="G268">
+        <v>505.14879990880132</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>20</v>
+      </c>
+      <c r="B269">
+        <v>346.99449164178998</v>
+      </c>
+      <c r="C269" t="s">
+        <v>10</v>
+      </c>
+      <c r="D269" t="s">
+        <v>27</v>
+      </c>
+      <c r="E269" t="s">
+        <v>25</v>
+      </c>
+      <c r="F269">
+        <f t="shared" si="4"/>
+        <v>495.8551285561179</v>
+      </c>
+      <c r="G269">
+        <v>495.8551285561179</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>20</v>
+      </c>
+      <c r="B270">
+        <v>380.75460212223601</v>
+      </c>
+      <c r="C270" t="s">
+        <v>10</v>
+      </c>
+      <c r="D270" t="s">
+        <v>27</v>
+      </c>
+      <c r="E270" t="s">
+        <v>25</v>
+      </c>
+      <c r="F270">
+        <f t="shared" si="4"/>
+        <v>544.09832643267532</v>
+      </c>
+      <c r="G270">
+        <v>544.09832643267532</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>20</v>
+      </c>
+      <c r="B271">
+        <v>387.89097711234598</v>
+      </c>
+      <c r="C271" t="s">
+        <v>10</v>
+      </c>
+      <c r="D271" t="s">
+        <v>27</v>
+      </c>
+      <c r="E271" t="s">
+        <v>25</v>
+      </c>
+      <c r="F271">
+        <f t="shared" si="4"/>
+        <v>554.29620629354247</v>
+      </c>
+      <c r="G271">
+        <v>554.29620629354247</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>20</v>
+      </c>
+      <c r="B272">
+        <v>387.89097711234598</v>
+      </c>
+      <c r="C272" t="s">
+        <v>10</v>
+      </c>
+      <c r="D272" t="s">
+        <v>27</v>
+      </c>
+      <c r="E272" t="s">
+        <v>25</v>
+      </c>
+      <c r="F272">
+        <f t="shared" si="4"/>
+        <v>554.29620629354247</v>
+      </c>
+      <c r="G272">
+        <v>554.29620629354247</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>20</v>
+      </c>
+      <c r="B273">
+        <v>425.63002645494902</v>
+      </c>
+      <c r="C273" t="s">
+        <v>10</v>
+      </c>
+      <c r="D273" t="s">
+        <v>27</v>
+      </c>
+      <c r="E273" t="s">
+        <v>25</v>
+      </c>
+      <c r="F273">
+        <f t="shared" si="4"/>
+        <v>608.22530780412217</v>
+      </c>
+      <c r="G273">
+        <v>608.22530780412217</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>20</v>
+      </c>
+      <c r="B274">
+        <v>458.44825349568902</v>
+      </c>
+      <c r="C274" t="s">
+        <v>10</v>
+      </c>
+      <c r="D274" t="s">
+        <v>27</v>
+      </c>
+      <c r="E274" t="s">
+        <v>25</v>
+      </c>
+      <c r="F274">
+        <f t="shared" si="4"/>
+        <v>655.12255424533964</v>
+      </c>
+      <c r="G274">
+        <v>655.12255424533964</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>30</v>
+      </c>
+      <c r="B275">
+        <v>214.11404752974201</v>
+      </c>
+      <c r="C275" t="s">
+        <v>10</v>
+      </c>
+      <c r="D275" t="s">
+        <v>27</v>
+      </c>
+      <c r="E275" t="s">
+        <v>25</v>
+      </c>
+      <c r="F275">
+        <f t="shared" si="4"/>
+        <v>305.96897392000136</v>
+      </c>
+      <c r="G275">
+        <v>305.96897392000136</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>30</v>
+      </c>
+      <c r="B276">
+        <v>293.59045735093298</v>
+      </c>
+      <c r="C276" t="s">
+        <v>10</v>
+      </c>
+      <c r="D276" t="s">
+        <v>27</v>
+      </c>
+      <c r="E276" t="s">
+        <v>25</v>
+      </c>
+      <c r="F276">
+        <f t="shared" si="4"/>
+        <v>419.54076355448325</v>
+      </c>
+      <c r="G276">
+        <v>419.54076355448325</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>30</v>
+      </c>
+      <c r="B277">
+        <v>380.75460212223601</v>
+      </c>
+      <c r="C277" t="s">
+        <v>10</v>
+      </c>
+      <c r="D277" t="s">
+        <v>27</v>
+      </c>
+      <c r="E277" t="s">
+        <v>25</v>
+      </c>
+      <c r="F277">
+        <f t="shared" si="4"/>
+        <v>544.09832643267532</v>
+      </c>
+      <c r="G277">
+        <v>544.09832643267532</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>30</v>
+      </c>
+      <c r="B278">
+        <v>387.89097711234598</v>
+      </c>
+      <c r="C278" t="s">
+        <v>10</v>
+      </c>
+      <c r="D278" t="s">
+        <v>27</v>
+      </c>
+      <c r="E278" t="s">
+        <v>25</v>
+      </c>
+      <c r="F278">
+        <f t="shared" si="4"/>
+        <v>554.29620629354247</v>
+      </c>
+      <c r="G278">
+        <v>554.29620629354247</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>30</v>
+      </c>
+      <c r="B279">
+        <v>387.89097711234598</v>
+      </c>
+      <c r="C279" t="s">
+        <v>10</v>
+      </c>
+      <c r="D279" t="s">
+        <v>27</v>
+      </c>
+      <c r="E279" t="s">
+        <v>25</v>
+      </c>
+      <c r="F279">
+        <f t="shared" si="4"/>
+        <v>554.29620629354247</v>
+      </c>
+      <c r="G279">
+        <v>554.29620629354247</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>30</v>
+      </c>
+      <c r="B280">
+        <v>512.48058769609202</v>
+      </c>
+      <c r="C280" t="s">
+        <v>10</v>
+      </c>
+      <c r="D280" t="s">
+        <v>27</v>
+      </c>
+      <c r="E280" t="s">
+        <v>25</v>
+      </c>
+      <c r="F280">
+        <f t="shared" si="4"/>
+        <v>732.33475981771551</v>
+      </c>
+      <c r="G280">
+        <v>732.33475981771551</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>30</v>
+      </c>
+      <c r="B281">
+        <v>551.99543212815604</v>
+      </c>
+      <c r="C281" t="s">
+        <v>10</v>
+      </c>
+      <c r="D281" t="s">
+        <v>27</v>
+      </c>
+      <c r="E281" t="s">
+        <v>25</v>
+      </c>
+      <c r="F281">
+        <f t="shared" si="4"/>
+        <v>788.80147251113499</v>
+      </c>
+      <c r="G281">
+        <v>788.80147251113499</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>30</v>
+      </c>
+      <c r="B282">
+        <v>594.55707085443805</v>
+      </c>
+      <c r="C282" t="s">
+        <v>10</v>
+      </c>
+      <c r="D282" t="s">
+        <v>27</v>
+      </c>
+      <c r="E282" t="s">
+        <v>25</v>
+      </c>
+      <c r="F282">
+        <f t="shared" si="4"/>
+        <v>849.62205425099205</v>
+      </c>
+      <c r="G282">
+        <v>849.62205425099205</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>0</v>
+      </c>
+      <c r="B283">
+        <v>29.3671301819634</v>
+      </c>
+      <c r="C283" t="s">
+        <v>12</v>
+      </c>
+      <c r="D283" t="s">
+        <v>28</v>
+      </c>
+      <c r="E283" t="s">
+        <v>25</v>
+      </c>
+      <c r="F283">
+        <f t="shared" si="4"/>
+        <v>41.965629030025703</v>
+      </c>
+      <c r="G283">
+        <v>41.965629030025703</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>0</v>
+      </c>
+      <c r="B284">
+        <v>29.380014499023702</v>
+      </c>
+      <c r="C284" t="s">
+        <v>12</v>
+      </c>
+      <c r="D284" t="s">
+        <v>28</v>
+      </c>
+      <c r="E284" t="s">
+        <v>25</v>
+      </c>
+      <c r="F284">
+        <f t="shared" si="4"/>
+        <v>41.984040719104868</v>
+      </c>
+      <c r="G284">
+        <v>41.984040719104868</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>0</v>
+      </c>
+      <c r="B285">
+        <v>32.835458558616601</v>
+      </c>
+      <c r="C285" t="s">
+        <v>12</v>
+      </c>
+      <c r="D285" t="s">
+        <v>28</v>
+      </c>
+      <c r="E285" t="s">
+        <v>25</v>
+      </c>
+      <c r="F285">
+        <f t="shared" si="4"/>
+        <v>46.921870280263121</v>
+      </c>
+      <c r="G285">
+        <v>46.921870280263121</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>0</v>
+      </c>
+      <c r="B286">
+        <v>35.377540466486799</v>
+      </c>
+      <c r="C286" t="s">
+        <v>12</v>
+      </c>
+      <c r="D286" t="s">
+        <v>28</v>
+      </c>
+      <c r="E286" t="s">
+        <v>25</v>
+      </c>
+      <c r="F286">
+        <f t="shared" si="4"/>
+        <v>50.554505326609636</v>
+      </c>
+      <c r="G286">
+        <v>50.554505326609636</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>0</v>
+      </c>
+      <c r="B287">
+        <v>34.067860772454601</v>
+      </c>
+      <c r="C287" t="s">
+        <v>12</v>
+      </c>
+      <c r="D287" t="s">
+        <v>28</v>
+      </c>
+      <c r="E287" t="s">
+        <v>25</v>
+      </c>
+      <c r="F287">
+        <f t="shared" si="4"/>
+        <v>48.682973043837627</v>
+      </c>
+      <c r="G287">
+        <v>48.682973043837627</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>0</v>
+      </c>
+      <c r="B288">
+        <v>36.705353784921499</v>
+      </c>
+      <c r="C288" t="s">
+        <v>12</v>
+      </c>
+      <c r="D288" t="s">
+        <v>28</v>
+      </c>
+      <c r="E288" t="s">
+        <v>25</v>
+      </c>
+      <c r="F288">
+        <f t="shared" si="4"/>
+        <v>52.451950558652825</v>
+      </c>
+      <c r="G288">
+        <v>52.451950558652825</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>0</v>
+      </c>
+      <c r="B289">
+        <v>39.535475527863099</v>
+      </c>
+      <c r="C289" t="s">
+        <v>12</v>
+      </c>
+      <c r="D289" t="s">
+        <v>28</v>
+      </c>
+      <c r="E289" t="s">
+        <v>25</v>
+      </c>
+      <c r="F289">
+        <f t="shared" si="4"/>
+        <v>56.496194529316369</v>
+      </c>
+      <c r="G289">
+        <v>56.496194529316369</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>0</v>
+      </c>
+      <c r="B290">
+        <v>42.583810371999803</v>
+      </c>
+      <c r="C290" t="s">
+        <v>12</v>
+      </c>
+      <c r="D290" t="s">
+        <v>28</v>
+      </c>
+      <c r="E290" t="s">
+        <v>25</v>
+      </c>
+      <c r="F290">
+        <f t="shared" si="4"/>
+        <v>60.852265021587719</v>
+      </c>
+      <c r="G290">
+        <v>60.852265021587719</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>10</v>
+      </c>
+      <c r="B291">
+        <v>57.567809232302601</v>
+      </c>
+      <c r="C291" t="s">
+        <v>12</v>
+      </c>
+      <c r="D291" t="s">
+        <v>28</v>
+      </c>
+      <c r="E291" t="s">
+        <v>25</v>
+      </c>
+      <c r="F291">
+        <f t="shared" si="4"/>
+        <v>82.264399392960414</v>
+      </c>
+      <c r="G291">
+        <v>82.264399392960414</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>10</v>
+      </c>
+      <c r="B292">
+        <v>64.343181632298695</v>
+      </c>
+      <c r="C292" t="s">
+        <v>12</v>
+      </c>
+      <c r="D292" t="s">
+        <v>28</v>
+      </c>
+      <c r="E292" t="s">
+        <v>25</v>
+      </c>
+      <c r="F292">
+        <f t="shared" si="4"/>
+        <v>91.946406552554834</v>
+      </c>
+      <c r="G292">
+        <v>91.946406552554834</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>10</v>
+      </c>
+      <c r="B293">
+        <v>71.947525022626294</v>
+      </c>
+      <c r="C293" t="s">
+        <v>12</v>
+      </c>
+      <c r="D293" t="s">
+        <v>28</v>
+      </c>
+      <c r="E293" t="s">
+        <v>25</v>
+      </c>
+      <c r="F293">
+        <f t="shared" si="4"/>
+        <v>102.81301325733298</v>
+      </c>
+      <c r="G293">
+        <v>102.81301325733298</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>10</v>
+      </c>
+      <c r="B294">
+        <v>77.506283124434006</v>
+      </c>
+      <c r="C294" t="s">
+        <v>12</v>
+      </c>
+      <c r="D294" t="s">
+        <v>28</v>
+      </c>
+      <c r="E294" t="s">
+        <v>25</v>
+      </c>
+      <c r="F294">
+        <f t="shared" si="4"/>
+        <v>110.75647858481619</v>
+      </c>
+      <c r="G294">
+        <v>110.75647858481619</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>10</v>
+      </c>
+      <c r="B295">
+        <v>80.415300360736396</v>
+      </c>
+      <c r="C295" t="s">
+        <v>12</v>
+      </c>
+      <c r="D295" t="s">
+        <v>28</v>
+      </c>
+      <c r="E295" t="s">
+        <v>25</v>
+      </c>
+      <c r="F295">
+        <f t="shared" si="4"/>
+        <v>114.91346421549231</v>
+      </c>
+      <c r="G295">
+        <v>114.91346421549231</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>10</v>
+      </c>
+      <c r="B296">
+        <v>71.926488897510197</v>
+      </c>
+      <c r="C296" t="s">
+        <v>12</v>
+      </c>
+      <c r="D296" t="s">
+        <v>28</v>
+      </c>
+      <c r="E296" t="s">
+        <v>25</v>
+      </c>
+      <c r="F296">
+        <f t="shared" si="4"/>
+        <v>102.78295263454207</v>
+      </c>
+      <c r="G296">
+        <v>102.78295263454207</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>10</v>
+      </c>
+      <c r="B297">
+        <v>77.4496420393195</v>
+      </c>
+      <c r="C297" t="s">
+        <v>12</v>
+      </c>
+      <c r="D297" t="s">
+        <v>28</v>
+      </c>
+      <c r="E297" t="s">
+        <v>25</v>
+      </c>
+      <c r="F297">
+        <f t="shared" si="4"/>
+        <v>110.67553847418756</v>
+      </c>
+      <c r="G297">
+        <v>110.67553847418756</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>10</v>
+      </c>
+      <c r="B298">
+        <v>95.028676837301305</v>
+      </c>
+      <c r="C298" t="s">
+        <v>12</v>
+      </c>
+      <c r="D298" t="s">
+        <v>28</v>
+      </c>
+      <c r="E298" t="s">
+        <v>25</v>
+      </c>
+      <c r="F298">
+        <f t="shared" si="4"/>
+        <v>135.79597920050358</v>
+      </c>
+      <c r="G298">
+        <v>135.79597920050358</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>20</v>
+      </c>
+      <c r="B299">
+        <v>79.311839314871406</v>
+      </c>
+      <c r="C299" t="s">
+        <v>12</v>
+      </c>
+      <c r="D299" t="s">
+        <v>28</v>
+      </c>
+      <c r="E299" t="s">
+        <v>25</v>
+      </c>
+      <c r="F299">
+        <f t="shared" si="4"/>
+        <v>113.33661838095124</v>
+      </c>
+      <c r="G299">
+        <v>113.33661838095124</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>20</v>
+      </c>
+      <c r="B300">
+        <v>85.408348741478093</v>
+      </c>
+      <c r="C300" t="s">
+        <v>12</v>
+      </c>
+      <c r="D300" t="s">
+        <v>28</v>
+      </c>
+      <c r="E300" t="s">
+        <v>25</v>
+      </c>
+      <c r="F300">
+        <f t="shared" si="4"/>
+        <v>122.0485303515722</v>
+      </c>
+      <c r="G300">
+        <v>122.0485303515722</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>20</v>
+      </c>
+      <c r="B301">
+        <v>93.704137347198099</v>
+      </c>
+      <c r="C301" t="s">
+        <v>12</v>
+      </c>
+      <c r="D301" t="s">
+        <v>28</v>
+      </c>
+      <c r="E301" t="s">
+        <v>25</v>
+      </c>
+      <c r="F301">
+        <f t="shared" si="4"/>
+        <v>133.90321226914608</v>
+      </c>
+      <c r="G301">
+        <v>133.90321226914608</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>20</v>
+      </c>
+      <c r="B302">
+        <v>95.495279187446101</v>
+      </c>
+      <c r="C302" t="s">
+        <v>12</v>
+      </c>
+      <c r="D302" t="s">
+        <v>28</v>
+      </c>
+      <c r="E302" t="s">
+        <v>25</v>
+      </c>
+      <c r="F302">
+        <f t="shared" si="4"/>
+        <v>136.46275395886047</v>
+      </c>
+      <c r="G302">
+        <v>136.46275395886047</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>20</v>
+      </c>
+      <c r="B303">
+        <v>104.77847994894501</v>
+      </c>
+      <c r="C303" t="s">
+        <v>12</v>
+      </c>
+      <c r="D303" t="s">
+        <v>28</v>
+      </c>
+      <c r="E303" t="s">
+        <v>25</v>
+      </c>
+      <c r="F303">
+        <f t="shared" si="4"/>
+        <v>149.72844784704242</v>
+      </c>
+      <c r="G303">
+        <v>149.72844784704242</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>20</v>
+      </c>
+      <c r="B304">
+        <v>104.747844660059</v>
+      </c>
+      <c r="C304" t="s">
+        <v>12</v>
+      </c>
+      <c r="D304" t="s">
+        <v>28</v>
+      </c>
+      <c r="E304" t="s">
+        <v>25</v>
+      </c>
+      <c r="F304">
+        <f t="shared" si="4"/>
+        <v>149.68467001922431</v>
+      </c>
+      <c r="G304">
+        <v>149.68467001922431</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>30</v>
+      </c>
+      <c r="B305">
+        <v>103.31049174709101</v>
+      </c>
+      <c r="C305" t="s">
+        <v>12</v>
+      </c>
+      <c r="D305" t="s">
+        <v>28</v>
+      </c>
+      <c r="E305" t="s">
+        <v>25</v>
+      </c>
+      <c r="F305">
+        <f t="shared" si="4"/>
+        <v>147.63069270659307</v>
+      </c>
+      <c r="G305">
+        <v>147.63069270659307</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>30</v>
+      </c>
+      <c r="B306">
+        <v>113.353417887711</v>
+      </c>
+      <c r="C306" t="s">
+        <v>12</v>
+      </c>
+      <c r="D306" t="s">
+        <v>28</v>
+      </c>
+      <c r="E306" t="s">
+        <v>25</v>
+      </c>
+      <c r="F306">
+        <f t="shared" si="4"/>
+        <v>161.98203416153902</v>
+      </c>
+      <c r="G306">
+        <v>161.98203416153902</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>30</v>
+      </c>
+      <c r="B307">
+        <v>124.38172061189201</v>
+      </c>
+      <c r="C307" t="s">
+        <v>12</v>
+      </c>
+      <c r="D307" t="s">
+        <v>28</v>
+      </c>
+      <c r="E307" t="s">
+        <v>25</v>
+      </c>
+      <c r="F307">
+        <f t="shared" si="4"/>
+        <v>177.74147875439368</v>
+      </c>
+      <c r="G307">
+        <v>177.74147875439368</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>30</v>
+      </c>
+      <c r="B308">
+        <v>133.991611945204</v>
+      </c>
+      <c r="C308" t="s">
+        <v>12</v>
+      </c>
+      <c r="D308" t="s">
+        <v>28</v>
+      </c>
+      <c r="E308" t="s">
+        <v>25</v>
+      </c>
+      <c r="F308">
+        <f t="shared" si="4"/>
+        <v>191.47401346969653</v>
+      </c>
+      <c r="G308">
+        <v>191.47401346969653</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>30</v>
+      </c>
+      <c r="B309">
+        <v>133.942642899894</v>
+      </c>
+      <c r="C309" t="s">
+        <v>12</v>
+      </c>
+      <c r="D309" t="s">
+        <v>28</v>
+      </c>
+      <c r="E309" t="s">
+        <v>25</v>
+      </c>
+      <c r="F309">
+        <f t="shared" si="4"/>
+        <v>191.40403670394852</v>
+      </c>
+      <c r="G309">
+        <v>191.40403670394852</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>30</v>
+      </c>
+      <c r="B310">
+        <v>176.96390192221301</v>
+      </c>
+      <c r="C310" t="s">
+        <v>12</v>
+      </c>
+      <c r="D310" t="s">
+        <v>28</v>
+      </c>
+      <c r="E310" t="s">
+        <v>25</v>
+      </c>
+      <c r="F310">
+        <f t="shared" si="4"/>
+        <v>252.8814158468424</v>
+      </c>
+      <c r="G310">
+        <v>252.8814158468424</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>30</v>
+      </c>
+      <c r="B311">
+        <v>187.19752256299</v>
+      </c>
+      <c r="C311" t="s">
+        <v>12</v>
+      </c>
+      <c r="D311" t="s">
+        <v>28</v>
+      </c>
+      <c r="E311" t="s">
+        <v>25</v>
+      </c>
+      <c r="F311">
+        <f t="shared" si="4"/>
+        <v>267.50525974251275</v>
+      </c>
+      <c r="G311">
+        <v>267.50525974251275</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>30</v>
+      </c>
+      <c r="B312">
+        <v>190.65029723678799</v>
+      </c>
+      <c r="C312" t="s">
+        <v>12</v>
+      </c>
+      <c r="D312" t="s">
+        <v>28</v>
+      </c>
+      <c r="E312" t="s">
+        <v>25</v>
+      </c>
+      <c r="F312">
+        <f t="shared" si="4"/>
+        <v>272.43927475137002</v>
+      </c>
+      <c r="G312">
+        <v>272.43927475137002</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>30</v>
+      </c>
+      <c r="B313">
+        <v>205.35015695397601</v>
+      </c>
+      <c r="C313" t="s">
+        <v>12</v>
+      </c>
+      <c r="D313" t="s">
+        <v>28</v>
+      </c>
+      <c r="E313" t="s">
+        <v>25</v>
+      </c>
+      <c r="F313">
+        <f t="shared" si="4"/>
+        <v>293.44537428723174</v>
+      </c>
+      <c r="G313">
+        <v>293.44537428723174</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>0</v>
+      </c>
+      <c r="B314">
+        <v>39.736561458331401</v>
+      </c>
+      <c r="C314" t="s">
+        <v>29</v>
+      </c>
+      <c r="D314" t="s">
+        <v>30</v>
+      </c>
+      <c r="E314" t="s">
+        <v>25</v>
+      </c>
+      <c r="F314">
+        <f t="shared" si="4"/>
+        <v>56.783546323955576</v>
+      </c>
+      <c r="G314">
+        <v>56.783546323955576</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>0</v>
+      </c>
+      <c r="B315">
+        <v>42.813323987193897</v>
+      </c>
+      <c r="C315" t="s">
+        <v>29</v>
+      </c>
+      <c r="D315" t="s">
+        <v>30</v>
+      </c>
+      <c r="E315" t="s">
+        <v>25</v>
+      </c>
+      <c r="F315">
+        <f t="shared" si="4"/>
+        <v>61.180239977700083</v>
+      </c>
+      <c r="G315">
+        <v>61.180239977700083</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>0</v>
+      </c>
+      <c r="B316">
+        <v>46.1283171860387</v>
+      </c>
+      <c r="C316" t="s">
+        <v>29</v>
+      </c>
+      <c r="D316" t="s">
+        <v>30</v>
+      </c>
+      <c r="E316" t="s">
+        <v>25</v>
+      </c>
+      <c r="F316">
+        <f t="shared" si="4"/>
+        <v>65.917365258849301</v>
+      </c>
+      <c r="G316">
+        <v>65.917365258849301</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>0</v>
+      </c>
+      <c r="B317">
+        <v>51.5882276086068</v>
+      </c>
+      <c r="C317" t="s">
+        <v>29</v>
+      </c>
+      <c r="D317" t="s">
+        <v>30</v>
+      </c>
+      <c r="E317" t="s">
+        <v>25</v>
+      </c>
+      <c r="F317">
+        <f t="shared" si="4"/>
+        <v>73.719577252699125</v>
+      </c>
+      <c r="G317">
+        <v>73.719577252699125</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>0</v>
+      </c>
+      <c r="B318">
+        <v>55.582652888786903</v>
+      </c>
+      <c r="C318" t="s">
+        <v>29</v>
+      </c>
+      <c r="D318" t="s">
+        <v>30</v>
+      </c>
+      <c r="E318" t="s">
+        <v>25</v>
+      </c>
+      <c r="F318">
+        <f t="shared" si="4"/>
+        <v>79.427610978076487</v>
+      </c>
+      <c r="G318">
+        <v>79.427610978076487</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>0</v>
+      </c>
+      <c r="B319">
+        <v>57.694392298423402</v>
+      </c>
+      <c r="C319" t="s">
+        <v>29</v>
+      </c>
+      <c r="D319" t="s">
+        <v>30</v>
+      </c>
+      <c r="E319" t="s">
+        <v>25</v>
+      </c>
+      <c r="F319">
+        <f t="shared" si="4"/>
+        <v>82.44528659444704</v>
+      </c>
+      <c r="G319">
+        <v>82.44528659444704</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>0</v>
+      </c>
+      <c r="B320">
+        <v>62.161611852269701</v>
+      </c>
+      <c r="C320" t="s">
+        <v>29</v>
+      </c>
+      <c r="D320" t="s">
+        <v>30</v>
+      </c>
+      <c r="E320" t="s">
+        <v>25</v>
+      </c>
+      <c r="F320">
+        <f t="shared" si="4"/>
+        <v>88.828943336893403</v>
+      </c>
+      <c r="G320">
+        <v>88.828943336893403</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>10</v>
+      </c>
+      <c r="B321">
+        <v>74.902088464608894</v>
+      </c>
+      <c r="C321" t="s">
+        <v>29</v>
+      </c>
+      <c r="D321" t="s">
+        <v>30</v>
+      </c>
+      <c r="E321" t="s">
+        <v>25</v>
+      </c>
+      <c r="F321">
+        <f t="shared" si="4"/>
+        <v>107.03508441592611</v>
+      </c>
+      <c r="G321">
+        <v>107.03508441592611</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>10</v>
+      </c>
+      <c r="B322">
+        <v>93.682812195808793</v>
+      </c>
+      <c r="C322" t="s">
+        <v>29</v>
+      </c>
+      <c r="D322" t="s">
+        <v>30</v>
+      </c>
+      <c r="E322" t="s">
+        <v>25</v>
+      </c>
+      <c r="F322">
+        <f t="shared" si="4"/>
+        <v>133.87273862781078</v>
+      </c>
+      <c r="G322">
+        <v>133.87273862781078</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>10</v>
+      </c>
+      <c r="B323">
+        <v>104.771440481563</v>
+      </c>
+      <c r="C323" t="s">
+        <v>29</v>
+      </c>
+      <c r="D323" t="s">
+        <v>30</v>
+      </c>
+      <c r="E323" t="s">
+        <v>25</v>
+      </c>
+      <c r="F323">
+        <f t="shared" ref="F323:G386" si="5">B323*1.429</f>
+        <v>149.71838844815355</v>
+      </c>
+      <c r="G323">
+        <v>149.71838844815355</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>10</v>
+      </c>
+      <c r="B324">
+        <v>117.172557946258</v>
+      </c>
+      <c r="C324" t="s">
+        <v>29</v>
+      </c>
+      <c r="D324" t="s">
+        <v>30</v>
+      </c>
+      <c r="E324" t="s">
+        <v>25</v>
+      </c>
+      <c r="F324">
+        <f t="shared" si="5"/>
+        <v>167.43958530520268</v>
+      </c>
+      <c r="G324">
+        <v>167.43958530520268</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>10</v>
+      </c>
+      <c r="B325">
+        <v>131.04151544127299</v>
+      </c>
+      <c r="C325" t="s">
+        <v>29</v>
+      </c>
+      <c r="D325" t="s">
+        <v>30</v>
+      </c>
+      <c r="E325" t="s">
+        <v>25</v>
+      </c>
+      <c r="F325">
+        <f t="shared" si="5"/>
+        <v>187.2583255655791</v>
+      </c>
+      <c r="G325">
+        <v>187.2583255655791</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>10</v>
+      </c>
+      <c r="B326">
+        <v>108.751998594037</v>
+      </c>
+      <c r="C326" t="s">
+        <v>29</v>
+      </c>
+      <c r="D326" t="s">
+        <v>30</v>
+      </c>
+      <c r="E326" t="s">
+        <v>25</v>
+      </c>
+      <c r="F326">
+        <f t="shared" si="5"/>
+        <v>155.40660599087889</v>
+      </c>
+      <c r="G326">
+        <v>155.40660599087889</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <v>10</v>
+      </c>
+      <c r="B327">
+        <v>115.008183741574</v>
+      </c>
+      <c r="C327" t="s">
+        <v>29</v>
+      </c>
+      <c r="D327" t="s">
+        <v>30</v>
+      </c>
+      <c r="E327" t="s">
+        <v>25</v>
+      </c>
+      <c r="F327">
+        <f t="shared" si="5"/>
+        <v>164.34669456670926</v>
+      </c>
+      <c r="G327">
+        <v>164.34669456670926</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <v>10</v>
+      </c>
+      <c r="B328">
+        <v>190.262074064377</v>
+      </c>
+      <c r="C328" t="s">
+        <v>29</v>
+      </c>
+      <c r="D328" t="s">
+        <v>30</v>
+      </c>
+      <c r="E328" t="s">
+        <v>25</v>
+      </c>
+      <c r="F328">
+        <f t="shared" si="5"/>
+        <v>271.88450383799477</v>
+      </c>
+      <c r="G328">
+        <v>271.88450383799477</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <v>20</v>
+      </c>
+      <c r="B329">
+        <v>110.79863573591</v>
+      </c>
+      <c r="C329" t="s">
+        <v>29</v>
+      </c>
+      <c r="D329" t="s">
+        <v>30</v>
+      </c>
+      <c r="E329" t="s">
+        <v>25</v>
+      </c>
+      <c r="F329">
+        <f t="shared" si="5"/>
+        <v>158.33125046661539</v>
+      </c>
+      <c r="G329">
+        <v>158.33125046661539</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <v>20</v>
+      </c>
+      <c r="B330">
+        <v>126.245112854615</v>
+      </c>
+      <c r="C330" t="s">
+        <v>29</v>
+      </c>
+      <c r="D330" t="s">
+        <v>30</v>
+      </c>
+      <c r="E330" t="s">
+        <v>25</v>
+      </c>
+      <c r="F330">
+        <f t="shared" si="5"/>
+        <v>180.40426626924486</v>
+      </c>
+      <c r="G330">
+        <v>180.40426626924486</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <v>20</v>
+      </c>
+      <c r="B331">
+        <v>141.18792996830399</v>
+      </c>
+      <c r="C331" t="s">
+        <v>29</v>
+      </c>
+      <c r="D331" t="s">
+        <v>30</v>
+      </c>
+      <c r="E331" t="s">
+        <v>25</v>
+      </c>
+      <c r="F331">
+        <f t="shared" si="5"/>
+        <v>201.75755192470641</v>
+      </c>
+      <c r="G331">
+        <v>201.75755192470641</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>20</v>
+      </c>
+      <c r="B332">
+        <v>152.11997130533899</v>
+      </c>
+      <c r="C332" t="s">
+        <v>29</v>
+      </c>
+      <c r="D332" t="s">
+        <v>30</v>
+      </c>
+      <c r="E332" t="s">
+        <v>25</v>
+      </c>
+      <c r="F332">
+        <f t="shared" si="5"/>
+        <v>217.37943899532942</v>
+      </c>
+      <c r="G332">
+        <v>217.37943899532942</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <v>20</v>
+      </c>
+      <c r="B333">
+        <v>183.298071083243</v>
+      </c>
+      <c r="C333" t="s">
+        <v>29</v>
+      </c>
+      <c r="D333" t="s">
+        <v>30</v>
+      </c>
+      <c r="E333" t="s">
+        <v>25</v>
+      </c>
+      <c r="F333">
+        <f t="shared" si="5"/>
+        <v>261.93294357795423</v>
+      </c>
+      <c r="G333">
+        <v>261.93294357795423</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <v>20</v>
+      </c>
+      <c r="B334">
+        <v>204.99387768957899</v>
+      </c>
+      <c r="C334" t="s">
+        <v>29</v>
+      </c>
+      <c r="D334" t="s">
+        <v>30</v>
+      </c>
+      <c r="E334" t="s">
+        <v>25</v>
+      </c>
+      <c r="F334">
+        <f t="shared" si="5"/>
+        <v>292.93625121840842</v>
+      </c>
+      <c r="G334">
+        <v>292.93625121840842</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <v>20</v>
+      </c>
+      <c r="B335">
+        <v>220.86635025323801</v>
+      </c>
+      <c r="C335" t="s">
+        <v>29</v>
+      </c>
+      <c r="D335" t="s">
+        <v>30</v>
+      </c>
+      <c r="E335" t="s">
+        <v>25</v>
+      </c>
+      <c r="F335">
+        <f t="shared" si="5"/>
+        <v>315.61801451187711</v>
+      </c>
+      <c r="G335">
+        <v>315.61801451187711</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <v>20</v>
+      </c>
+      <c r="B336">
+        <v>242.44620170823299</v>
+      </c>
+      <c r="C336" t="s">
+        <v>29</v>
+      </c>
+      <c r="D336" t="s">
+        <v>30</v>
+      </c>
+      <c r="E336" t="s">
+        <v>25</v>
+      </c>
+      <c r="F336">
+        <f t="shared" si="5"/>
+        <v>346.45562224106493</v>
+      </c>
+      <c r="G336">
+        <v>346.45562224106493</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <v>30</v>
+      </c>
+      <c r="B337">
+        <v>229.25767653673799</v>
+      </c>
+      <c r="C337" t="s">
+        <v>29</v>
+      </c>
+      <c r="D337" t="s">
+        <v>30</v>
+      </c>
+      <c r="E337" t="s">
+        <v>25</v>
+      </c>
+      <c r="F337">
+        <f t="shared" si="5"/>
+        <v>327.60921977099861</v>
+      </c>
+      <c r="G337">
+        <v>327.60921977099861</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <v>30</v>
+      </c>
+      <c r="B338">
+        <v>256.39342424954498</v>
+      </c>
+      <c r="C338" t="s">
+        <v>29</v>
+      </c>
+      <c r="D338" t="s">
+        <v>30</v>
+      </c>
+      <c r="E338" t="s">
+        <v>25</v>
+      </c>
+      <c r="F338">
+        <f t="shared" si="5"/>
+        <v>366.38620325259978</v>
+      </c>
+      <c r="G338">
+        <v>366.38620325259978</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <v>30</v>
+      </c>
+      <c r="B339">
+        <v>256.39342424954498</v>
+      </c>
+      <c r="C339" t="s">
+        <v>29</v>
+      </c>
+      <c r="D339" t="s">
+        <v>30</v>
+      </c>
+      <c r="E339" t="s">
+        <v>25</v>
+      </c>
+      <c r="F339">
+        <f t="shared" si="5"/>
+        <v>366.38620325259978</v>
+      </c>
+      <c r="G339">
+        <v>366.38620325259978</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <v>30</v>
+      </c>
+      <c r="B340">
+        <v>256.39342424954498</v>
+      </c>
+      <c r="C340" t="s">
+        <v>29</v>
+      </c>
+      <c r="D340" t="s">
+        <v>30</v>
+      </c>
+      <c r="E340" t="s">
+        <v>25</v>
+      </c>
+      <c r="F340">
+        <f t="shared" si="5"/>
+        <v>366.38620325259978</v>
+      </c>
+      <c r="G340">
+        <v>366.38620325259978</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <v>30</v>
+      </c>
+      <c r="B341">
+        <v>229.25767653673799</v>
+      </c>
+      <c r="C341" t="s">
+        <v>29</v>
+      </c>
+      <c r="D341" t="s">
+        <v>30</v>
+      </c>
+      <c r="E341" t="s">
+        <v>25</v>
+      </c>
+      <c r="F341">
+        <f t="shared" si="5"/>
+        <v>327.60921977099861</v>
+      </c>
+      <c r="G341">
+        <v>327.60921977099861</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A342">
+        <v>30</v>
+      </c>
+      <c r="B342">
+        <v>416.32567837735701</v>
+      </c>
+      <c r="C342" t="s">
+        <v>29</v>
+      </c>
+      <c r="D342" t="s">
+        <v>30</v>
+      </c>
+      <c r="E342" t="s">
+        <v>25</v>
+      </c>
+      <c r="F342">
+        <f t="shared" si="5"/>
+        <v>594.92939440124314</v>
+      </c>
+      <c r="G342">
+        <v>594.92939440124314</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A343">
+        <v>30</v>
+      </c>
+      <c r="B343">
+        <v>448.56136259421902</v>
+      </c>
+      <c r="C343" t="s">
+        <v>29</v>
+      </c>
+      <c r="D343" t="s">
+        <v>30</v>
+      </c>
+      <c r="E343" t="s">
+        <v>25</v>
+      </c>
+      <c r="F343">
+        <f t="shared" si="5"/>
+        <v>640.99418714713897</v>
+      </c>
+      <c r="G343">
+        <v>640.99418714713897</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A344">
+        <v>30</v>
+      </c>
+      <c r="B344">
+        <v>501.65466857614098</v>
+      </c>
+      <c r="C344" t="s">
+        <v>29</v>
+      </c>
+      <c r="D344" t="s">
+        <v>30</v>
+      </c>
+      <c r="E344" t="s">
+        <v>25</v>
+      </c>
+      <c r="F344">
+        <f t="shared" si="5"/>
+        <v>716.86452139530547</v>
+      </c>
+      <c r="G344">
+        <v>716.86452139530547</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A345">
+        <v>0</v>
+      </c>
+      <c r="B345">
+        <v>32.994450404712303</v>
+      </c>
+      <c r="C345" t="s">
+        <v>31</v>
+      </c>
+      <c r="D345" t="s">
+        <v>32</v>
+      </c>
+      <c r="E345" t="s">
+        <v>25</v>
+      </c>
+      <c r="F345">
+        <f t="shared" si="5"/>
+        <v>47.149069628333883</v>
+      </c>
+      <c r="G345">
+        <v>47.149069628333883</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <v>0</v>
+      </c>
+      <c r="B346">
+        <v>34.9052830881188</v>
+      </c>
+      <c r="C346" t="s">
+        <v>31</v>
+      </c>
+      <c r="D346" t="s">
+        <v>32</v>
+      </c>
+      <c r="E346" t="s">
+        <v>25</v>
+      </c>
+      <c r="F346">
+        <f t="shared" si="5"/>
+        <v>49.879649532921768</v>
+      </c>
+      <c r="G346">
+        <v>49.879649532921768</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A347">
+        <v>0</v>
+      </c>
+      <c r="B347">
+        <v>34.237986491161401</v>
+      </c>
+      <c r="C347" t="s">
+        <v>31</v>
+      </c>
+      <c r="D347" t="s">
+        <v>32</v>
+      </c>
+      <c r="E347" t="s">
+        <v>25</v>
+      </c>
+      <c r="F347">
+        <f t="shared" si="5"/>
+        <v>48.926082695869646</v>
+      </c>
+      <c r="G347">
+        <v>48.926082695869646</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <v>0</v>
+      </c>
+      <c r="B348">
+        <v>36.899790001755299</v>
+      </c>
+      <c r="C348" t="s">
+        <v>31</v>
+      </c>
+      <c r="D348" t="s">
+        <v>32</v>
+      </c>
+      <c r="E348" t="s">
+        <v>25</v>
+      </c>
+      <c r="F348">
+        <f t="shared" si="5"/>
+        <v>52.729799912508327</v>
+      </c>
+      <c r="G348">
+        <v>52.729799912508327</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A349">
+        <v>0</v>
+      </c>
+      <c r="B349">
+        <v>38.307316839386502</v>
+      </c>
+      <c r="C349" t="s">
+        <v>31</v>
+      </c>
+      <c r="D349" t="s">
+        <v>32</v>
+      </c>
+      <c r="E349" t="s">
+        <v>25</v>
+      </c>
+      <c r="F349">
+        <f t="shared" si="5"/>
+        <v>54.741155763483313</v>
+      </c>
+      <c r="G349">
+        <v>54.741155763483313</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A350">
+        <v>0</v>
+      </c>
+      <c r="B350">
+        <v>41.261345260198098</v>
+      </c>
+      <c r="C350" t="s">
+        <v>31</v>
+      </c>
+      <c r="D350" t="s">
+        <v>32</v>
+      </c>
+      <c r="E350" t="s">
+        <v>25</v>
+      </c>
+      <c r="F350">
+        <f t="shared" si="5"/>
+        <v>58.962462376823083</v>
+      </c>
+      <c r="G350">
+        <v>58.962462376823083</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A351">
+        <v>0</v>
+      </c>
+      <c r="B351">
+        <v>38.2877158861927</v>
+      </c>
+      <c r="C351" t="s">
+        <v>31</v>
+      </c>
+      <c r="D351" t="s">
+        <v>32</v>
+      </c>
+      <c r="E351" t="s">
+        <v>25</v>
+      </c>
+      <c r="F351">
+        <f t="shared" si="5"/>
+        <v>54.713146001369367</v>
+      </c>
+      <c r="G351">
+        <v>54.713146001369367</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A352">
+        <v>10</v>
+      </c>
+      <c r="B352">
+        <v>72.493667484638195</v>
+      </c>
+      <c r="C352" t="s">
+        <v>31</v>
+      </c>
+      <c r="D352" t="s">
+        <v>32</v>
+      </c>
+      <c r="E352" t="s">
+        <v>25</v>
+      </c>
+      <c r="F352">
+        <f t="shared" si="5"/>
+        <v>103.59345083554798</v>
+      </c>
+      <c r="G352">
+        <v>103.59345083554798</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A353">
+        <v>10</v>
+      </c>
+      <c r="B353">
+        <v>81.062419138953402</v>
+      </c>
+      <c r="C353" t="s">
+        <v>31</v>
+      </c>
+      <c r="D353" t="s">
+        <v>32</v>
+      </c>
+      <c r="E353" t="s">
+        <v>25</v>
+      </c>
+      <c r="F353">
+        <f t="shared" si="5"/>
+        <v>115.83819694956442</v>
+      </c>
+      <c r="G353">
+        <v>115.83819694956442</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A354">
+        <v>10</v>
+      </c>
+      <c r="B354">
+        <v>87.364548847924397</v>
+      </c>
+      <c r="C354" t="s">
+        <v>31</v>
+      </c>
+      <c r="D354" t="s">
+        <v>32</v>
+      </c>
+      <c r="E354" t="s">
+        <v>25</v>
+      </c>
+      <c r="F354">
+        <f t="shared" si="5"/>
+        <v>124.84394030368396</v>
+      </c>
+      <c r="G354">
+        <v>124.84394030368396</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A355">
+        <v>10</v>
+      </c>
+      <c r="B355">
+        <v>81.109848264589601</v>
+      </c>
+      <c r="C355" t="s">
+        <v>31</v>
+      </c>
+      <c r="D355" t="s">
+        <v>32</v>
+      </c>
+      <c r="E355" t="s">
+        <v>25</v>
+      </c>
+      <c r="F355">
+        <f t="shared" si="5"/>
+        <v>115.90597317009855</v>
+      </c>
+      <c r="G355">
+        <v>115.90597317009855</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A356">
+        <v>20</v>
+      </c>
+      <c r="B356">
+        <v>153.56153624829699</v>
+      </c>
+      <c r="C356" t="s">
+        <v>31</v>
+      </c>
+      <c r="D356" t="s">
+        <v>32</v>
+      </c>
+      <c r="E356" t="s">
+        <v>25</v>
+      </c>
+      <c r="F356">
+        <f t="shared" si="5"/>
+        <v>219.43943529881639</v>
+      </c>
+      <c r="G356">
+        <v>219.43943529881639</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A357">
+        <v>20</v>
+      </c>
+      <c r="B357">
+        <v>165.427461301498</v>
+      </c>
+      <c r="C357" t="s">
+        <v>31</v>
+      </c>
+      <c r="D357" t="s">
+        <v>32</v>
+      </c>
+      <c r="E357" t="s">
+        <v>25</v>
+      </c>
+      <c r="F357">
+        <f t="shared" si="5"/>
+        <v>236.39584219984064</v>
+      </c>
+      <c r="G357">
+        <v>236.39584219984064</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A358">
+        <v>20</v>
+      </c>
+      <c r="B358">
+        <v>192.06509265287701</v>
+      </c>
+      <c r="C358" t="s">
+        <v>31</v>
+      </c>
+      <c r="D358" t="s">
+        <v>32</v>
+      </c>
+      <c r="E358" t="s">
+        <v>25</v>
+      </c>
+      <c r="F358">
+        <f t="shared" si="5"/>
+        <v>274.46101740096128</v>
+      </c>
+      <c r="G358">
+        <v>274.46101740096128</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A359">
+        <v>20</v>
+      </c>
+      <c r="B359">
+        <v>171.775295742103</v>
+      </c>
+      <c r="C359" t="s">
+        <v>31</v>
+      </c>
+      <c r="D359" t="s">
+        <v>32</v>
+      </c>
+      <c r="E359" t="s">
+        <v>25</v>
+      </c>
+      <c r="F359">
+        <f t="shared" si="5"/>
+        <v>245.4668976154652</v>
+      </c>
+      <c r="G359">
+        <v>245.4668976154652</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A360">
+        <v>30</v>
+      </c>
+      <c r="B360">
+        <v>112.356796728682</v>
+      </c>
+      <c r="C360" t="s">
+        <v>31</v>
+      </c>
+      <c r="D360" t="s">
+        <v>32</v>
+      </c>
+      <c r="E360" t="s">
+        <v>25</v>
+      </c>
+      <c r="F360">
+        <f t="shared" si="5"/>
+        <v>160.55786252528659</v>
+      </c>
+      <c r="G360">
+        <v>160.55786252528659</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A361">
+        <v>30</v>
+      </c>
+      <c r="B361">
+        <v>154.28179324209901</v>
+      </c>
+      <c r="C361" t="s">
+        <v>31</v>
+      </c>
+      <c r="D361" t="s">
+        <v>32</v>
+      </c>
+      <c r="E361" t="s">
+        <v>25</v>
+      </c>
+      <c r="F361">
+        <f t="shared" si="5"/>
+        <v>220.4686825429595</v>
+      </c>
+      <c r="G361">
+        <v>220.4686825429595</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <v>30</v>
+      </c>
+      <c r="B362">
+        <v>179.09852371512201</v>
+      </c>
+      <c r="C362" t="s">
+        <v>31</v>
+      </c>
+      <c r="D362" t="s">
+        <v>32</v>
+      </c>
+      <c r="E362" t="s">
+        <v>25</v>
+      </c>
+      <c r="F362">
+        <f t="shared" si="5"/>
+        <v>255.93179038890938</v>
+      </c>
+      <c r="G362">
+        <v>255.93179038890938</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A363">
+        <v>30</v>
+      </c>
+      <c r="B363">
+        <v>192.965944712762</v>
+      </c>
+      <c r="C363" t="s">
+        <v>31</v>
+      </c>
+      <c r="D363" t="s">
+        <v>32</v>
+      </c>
+      <c r="E363" t="s">
+        <v>25</v>
+      </c>
+      <c r="F363">
+        <f t="shared" si="5"/>
+        <v>275.74833499453689</v>
+      </c>
+      <c r="G363">
+        <v>275.74833499453689</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A364">
+        <v>0</v>
+      </c>
+      <c r="B364">
+        <v>30.176912023627899</v>
+      </c>
+      <c r="C364" t="s">
+        <v>31</v>
+      </c>
+      <c r="D364" t="s">
+        <v>33</v>
+      </c>
+      <c r="E364" t="s">
+        <v>25</v>
+      </c>
+      <c r="F364">
+        <f t="shared" si="5"/>
+        <v>43.122807281764267</v>
+      </c>
+      <c r="G364">
+        <v>43.122807281764267</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A365">
+        <v>0</v>
+      </c>
+      <c r="B365">
+        <v>34.402132630397503</v>
+      </c>
+      <c r="C365" t="s">
+        <v>31</v>
+      </c>
+      <c r="D365" t="s">
+        <v>33</v>
+      </c>
+      <c r="E365" t="s">
+        <v>25</v>
+      </c>
+      <c r="F365">
+        <f t="shared" si="5"/>
+        <v>49.160647528838034</v>
+      </c>
+      <c r="G365">
+        <v>49.160647528838034</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A366">
+        <v>0</v>
+      </c>
+      <c r="B366">
+        <v>38.491590219496601</v>
+      </c>
+      <c r="C366" t="s">
+        <v>31</v>
+      </c>
+      <c r="D366" t="s">
+        <v>33</v>
+      </c>
+      <c r="E366" t="s">
+        <v>25</v>
+      </c>
+      <c r="F366">
+        <f t="shared" si="5"/>
+        <v>55.004482423660647</v>
+      </c>
+      <c r="G366">
+        <v>55.004482423660647</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A367">
+        <v>0</v>
+      </c>
+      <c r="B367">
+        <v>38.491590219496601</v>
+      </c>
+      <c r="C367" t="s">
+        <v>31</v>
+      </c>
+      <c r="D367" t="s">
+        <v>33</v>
+      </c>
+      <c r="E367" t="s">
+        <v>25</v>
+      </c>
+      <c r="F367">
+        <f t="shared" si="5"/>
+        <v>55.004482423660647</v>
+      </c>
+      <c r="G367">
+        <v>55.004482423660647</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A368">
+        <v>10</v>
+      </c>
+      <c r="B368">
+        <v>76.944726765645299</v>
+      </c>
+      <c r="C368" t="s">
+        <v>31</v>
+      </c>
+      <c r="D368" t="s">
+        <v>33</v>
+      </c>
+      <c r="E368" t="s">
+        <v>25</v>
+      </c>
+      <c r="F368">
+        <f t="shared" si="5"/>
+        <v>109.95401454810714</v>
+      </c>
+      <c r="G368">
+        <v>109.95401454810714</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A369">
+        <v>10</v>
+      </c>
+      <c r="B369">
+        <v>84.494661082833105</v>
+      </c>
+      <c r="C369" t="s">
+        <v>31</v>
+      </c>
+      <c r="D369" t="s">
+        <v>33</v>
+      </c>
+      <c r="E369" t="s">
+        <v>25</v>
+      </c>
+      <c r="F369">
+        <f t="shared" si="5"/>
+        <v>120.74287068736851</v>
+      </c>
+      <c r="G369">
+        <v>120.74287068736851</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A370">
+        <v>10</v>
+      </c>
+      <c r="B370">
+        <v>98.145393070549702</v>
+      </c>
+      <c r="C370" t="s">
+        <v>31</v>
+      </c>
+      <c r="D370" t="s">
+        <v>33</v>
+      </c>
+      <c r="E370" t="s">
+        <v>25</v>
+      </c>
+      <c r="F370">
+        <f t="shared" si="5"/>
+        <v>140.24976669781552</v>
+      </c>
+      <c r="G370">
+        <v>140.24976669781552</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A371">
+        <v>10</v>
+      </c>
+      <c r="B371">
+        <v>109.812153001962</v>
+      </c>
+      <c r="C371" t="s">
+        <v>31</v>
+      </c>
+      <c r="D371" t="s">
+        <v>33</v>
+      </c>
+      <c r="E371" t="s">
+        <v>25</v>
+      </c>
+      <c r="F371">
+        <f t="shared" si="5"/>
+        <v>156.9215666398037</v>
+      </c>
+      <c r="G371">
+        <v>156.9215666398037</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A372">
+        <v>20</v>
+      </c>
+      <c r="B372">
+        <v>140.068817881786</v>
+      </c>
+      <c r="C372" t="s">
+        <v>31</v>
+      </c>
+      <c r="D372" t="s">
+        <v>33</v>
+      </c>
+      <c r="E372" t="s">
+        <v>25</v>
+      </c>
+      <c r="F372">
+        <f t="shared" si="5"/>
+        <v>200.1583407530722</v>
+      </c>
+      <c r="G372">
+        <v>200.1583407530722</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A373">
+        <v>20</v>
+      </c>
+      <c r="B373">
+        <v>162.69796235360201</v>
+      </c>
+      <c r="C373" t="s">
+        <v>31</v>
+      </c>
+      <c r="D373" t="s">
+        <v>33</v>
+      </c>
+      <c r="E373" t="s">
+        <v>25</v>
+      </c>
+      <c r="F373">
+        <f t="shared" si="5"/>
+        <v>232.49538820329727</v>
+      </c>
+      <c r="G373">
+        <v>232.49538820329727</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A374">
+        <v>20</v>
+      </c>
+      <c r="B374">
+        <v>192.55413332459301</v>
+      </c>
+      <c r="C374" t="s">
+        <v>31</v>
+      </c>
+      <c r="D374" t="s">
+        <v>33</v>
+      </c>
+      <c r="E374" t="s">
+        <v>25</v>
+      </c>
+      <c r="F374">
+        <f t="shared" si="5"/>
+        <v>275.15985652084345</v>
+      </c>
+      <c r="G374">
+        <v>275.15985652084345</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A375">
+        <v>20</v>
+      </c>
+      <c r="B375">
+        <v>219.514602023469</v>
+      </c>
+      <c r="C375" t="s">
+        <v>31</v>
+      </c>
+      <c r="D375" t="s">
+        <v>33</v>
+      </c>
+      <c r="E375" t="s">
+        <v>25</v>
+      </c>
+      <c r="F375">
+        <f t="shared" si="5"/>
+        <v>313.68636629153718</v>
+      </c>
+      <c r="G375">
+        <v>313.68636629153718</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A376">
+        <v>30</v>
+      </c>
+      <c r="B376">
+        <v>118.350672951946</v>
+      </c>
+      <c r="C376" t="s">
+        <v>31</v>
+      </c>
+      <c r="D376" t="s">
+        <v>33</v>
+      </c>
+      <c r="E376" t="s">
+        <v>25</v>
+      </c>
+      <c r="F376">
+        <f t="shared" si="5"/>
+        <v>169.12311164833082</v>
+      </c>
+      <c r="G376">
+        <v>169.12311164833082</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A377">
+        <v>30</v>
+      </c>
+      <c r="B377">
+        <v>148.160251762565</v>
+      </c>
+      <c r="C377" t="s">
+        <v>31</v>
+      </c>
+      <c r="D377" t="s">
+        <v>33</v>
+      </c>
+      <c r="E377" t="s">
+        <v>25</v>
+      </c>
+      <c r="F377">
+        <f t="shared" si="5"/>
+        <v>211.72099976870538</v>
+      </c>
+      <c r="G377">
+        <v>211.72099976870538</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A378">
+        <v>30</v>
+      </c>
+      <c r="B378">
+        <v>159.68055466971799</v>
+      </c>
+      <c r="C378" t="s">
+        <v>31</v>
+      </c>
+      <c r="D378" t="s">
+        <v>33</v>
+      </c>
+      <c r="E378" t="s">
+        <v>25</v>
+      </c>
+      <c r="F378">
+        <f t="shared" si="5"/>
+        <v>228.18351262302701</v>
+      </c>
+      <c r="G378">
+        <v>228.18351262302701</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A379">
+        <v>30</v>
+      </c>
+      <c r="B379">
+        <v>219.514602023469</v>
+      </c>
+      <c r="C379" t="s">
+        <v>31</v>
+      </c>
+      <c r="D379" t="s">
+        <v>33</v>
+      </c>
+      <c r="E379" t="s">
+        <v>25</v>
+      </c>
+      <c r="F379">
+        <f t="shared" si="5"/>
+        <v>313.68636629153718</v>
+      </c>
+      <c r="G379">
+        <v>313.68636629153718</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A380">
+        <v>0</v>
+      </c>
+      <c r="B380">
+        <v>29.4744090196087</v>
+      </c>
+      <c r="C380" t="s">
+        <v>34</v>
+      </c>
+      <c r="D380" t="s">
+        <v>35</v>
+      </c>
+      <c r="E380" t="s">
+        <v>25</v>
+      </c>
+      <c r="F380">
+        <f t="shared" si="5"/>
+        <v>42.118930489020833</v>
+      </c>
+      <c r="G380">
+        <v>42.118930489020833</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A381">
+        <v>0</v>
+      </c>
+      <c r="B381">
+        <v>36.867428908596203</v>
+      </c>
+      <c r="C381" t="s">
+        <v>34</v>
+      </c>
+      <c r="D381" t="s">
+        <v>35</v>
+      </c>
+      <c r="E381" t="s">
+        <v>25</v>
+      </c>
+      <c r="F381">
+        <f t="shared" si="5"/>
+        <v>52.683555910383973</v>
+      </c>
+      <c r="G381">
+        <v>52.683555910383973</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A382">
+        <v>0</v>
+      </c>
+      <c r="B382">
+        <v>43.606286012889697</v>
+      </c>
+      <c r="C382" t="s">
+        <v>34</v>
+      </c>
+      <c r="D382" t="s">
+        <v>35</v>
+      </c>
+      <c r="E382" t="s">
+        <v>25</v>
+      </c>
+      <c r="F382">
+        <f t="shared" si="5"/>
+        <v>62.313382712419383</v>
+      </c>
+      <c r="G382">
+        <v>62.313382712419383</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A383">
+        <v>0</v>
+      </c>
+      <c r="B383">
+        <v>50.620499577372499</v>
+      </c>
+      <c r="C383" t="s">
+        <v>34</v>
+      </c>
+      <c r="D383" t="s">
+        <v>35</v>
+      </c>
+      <c r="E383" t="s">
+        <v>25</v>
+      </c>
+      <c r="F383">
+        <f t="shared" si="5"/>
+        <v>72.336693896065299</v>
+      </c>
+      <c r="G383">
+        <v>72.336693896065299</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A384">
+        <v>10</v>
+      </c>
+      <c r="B384">
+        <v>84.9395792906015</v>
+      </c>
+      <c r="C384" t="s">
+        <v>34</v>
+      </c>
+      <c r="D384" t="s">
+        <v>35</v>
+      </c>
+      <c r="E384" t="s">
+        <v>25</v>
+      </c>
+      <c r="F384">
+        <f t="shared" si="5"/>
+        <v>121.37865880626954</v>
+      </c>
+      <c r="G384">
+        <v>121.37865880626954</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A385">
+        <v>10</v>
+      </c>
+      <c r="B385">
+        <v>114.462904368762</v>
+      </c>
+      <c r="C385" t="s">
+        <v>34</v>
+      </c>
+      <c r="D385" t="s">
+        <v>35</v>
+      </c>
+      <c r="E385" t="s">
+        <v>25</v>
+      </c>
+      <c r="F385">
+        <f t="shared" si="5"/>
+        <v>163.56749034296089</v>
+      </c>
+      <c r="G385">
+        <v>163.56749034296089</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A386">
+        <v>10</v>
+      </c>
+      <c r="B386">
+        <v>166.19122203598801</v>
+      </c>
+      <c r="C386" t="s">
+        <v>34</v>
+      </c>
+      <c r="D386" t="s">
+        <v>35</v>
+      </c>
+      <c r="E386" t="s">
+        <v>25</v>
+      </c>
+      <c r="F386">
+        <f t="shared" si="5"/>
+        <v>237.48725628942688</v>
+      </c>
+      <c r="G386">
+        <v>237.48725628942688</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A387">
+        <v>10</v>
+      </c>
+      <c r="B387">
+        <v>185.86220161397799</v>
+      </c>
+      <c r="C387" t="s">
+        <v>34</v>
+      </c>
+      <c r="D387" t="s">
+        <v>35</v>
+      </c>
+      <c r="E387" t="s">
+        <v>25</v>
+      </c>
+      <c r="F387">
+        <f t="shared" ref="F387:G395" si="6">B387*1.429</f>
+        <v>265.59708610637455</v>
+      </c>
+      <c r="G387">
+        <v>265.59708610637455</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A388">
+        <v>20</v>
+      </c>
+      <c r="B388">
+        <v>171.725065445654</v>
+      </c>
+      <c r="C388" t="s">
+        <v>34</v>
+      </c>
+      <c r="D388" t="s">
+        <v>35</v>
+      </c>
+      <c r="E388" t="s">
+        <v>25</v>
+      </c>
+      <c r="F388">
+        <f t="shared" si="6"/>
+        <v>245.39511852183958</v>
+      </c>
+      <c r="G388">
+        <v>245.39511852183958</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A389">
+        <v>20</v>
+      </c>
+      <c r="B389">
+        <v>289.52185501267098</v>
+      </c>
+      <c r="C389" t="s">
+        <v>34</v>
+      </c>
+      <c r="D389" t="s">
+        <v>35</v>
+      </c>
+      <c r="E389" t="s">
+        <v>25</v>
+      </c>
+      <c r="F389">
+        <f t="shared" si="6"/>
+        <v>413.72673081310683</v>
+      </c>
+      <c r="G389">
+        <v>413.72673081310683</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A390">
+        <v>20</v>
+      </c>
+      <c r="B390">
+        <v>311.84802814923898</v>
+      </c>
+      <c r="C390" t="s">
+        <v>34</v>
+      </c>
+      <c r="D390" t="s">
+        <v>35</v>
+      </c>
+      <c r="E390" t="s">
+        <v>25</v>
+      </c>
+      <c r="F390">
+        <f t="shared" si="6"/>
+        <v>445.63083222526251</v>
+      </c>
+      <c r="G390">
+        <v>445.63083222526251</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A391">
+        <v>20</v>
+      </c>
+      <c r="B391">
+        <v>289.373713487842</v>
+      </c>
+      <c r="C391" t="s">
+        <v>34</v>
+      </c>
+      <c r="D391" t="s">
+        <v>35</v>
+      </c>
+      <c r="E391" t="s">
+        <v>25</v>
+      </c>
+      <c r="F391">
+        <f t="shared" si="6"/>
+        <v>413.51503657412621</v>
+      </c>
+      <c r="G391">
+        <v>413.51503657412621</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A392">
+        <v>30</v>
+      </c>
+      <c r="B392">
+        <v>230.34981623705201</v>
+      </c>
+      <c r="C392" t="s">
+        <v>34</v>
+      </c>
+      <c r="D392" t="s">
+        <v>35</v>
+      </c>
+      <c r="E392" t="s">
+        <v>25</v>
+      </c>
+      <c r="F392">
+        <f t="shared" si="6"/>
+        <v>329.16988740274735</v>
+      </c>
+      <c r="G392">
+        <v>329.16988740274735</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A393">
+        <v>30</v>
+      </c>
+      <c r="B393">
+        <v>257.61483345927201</v>
+      </c>
+      <c r="C393" t="s">
+        <v>34</v>
+      </c>
+      <c r="D393" t="s">
+        <v>35</v>
+      </c>
+      <c r="E393" t="s">
+        <v>25</v>
+      </c>
+      <c r="F393">
+        <f t="shared" si="6"/>
+        <v>368.13159701329971</v>
+      </c>
+      <c r="G393">
+        <v>368.13159701329971</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A394">
+        <v>30</v>
+      </c>
+      <c r="B394">
+        <v>272.35499815345702</v>
+      </c>
+      <c r="C394" t="s">
+        <v>34</v>
+      </c>
+      <c r="D394" t="s">
+        <v>35</v>
+      </c>
+      <c r="E394" t="s">
+        <v>25</v>
+      </c>
+      <c r="F394">
+        <f t="shared" si="6"/>
+        <v>389.19529236129011</v>
+      </c>
+      <c r="G394">
+        <v>389.19529236129011</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A395">
+        <v>30</v>
+      </c>
+      <c r="B395">
+        <v>288.14916751878502</v>
+      </c>
+      <c r="C395" t="s">
+        <v>34</v>
+      </c>
+      <c r="D395" t="s">
+        <v>35</v>
+      </c>
+      <c r="E395" t="s">
+        <v>25</v>
+      </c>
+      <c r="F395">
+        <f t="shared" si="6"/>
+        <v>411.7651603843438</v>
+      </c>
+      <c r="G395">
+        <v>411.7651603843438</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>